--- a/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>21.51757135678999</v>
+      </c>
+      <c r="C2">
+        <v>15.25723253579146</v>
+      </c>
+      <c r="D2">
+        <v>7.290538973151052</v>
+      </c>
+      <c r="E2">
+        <v>11.5599974401828</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.040723726074793</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.47647729891067</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>63.77347244453174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>19.82583303072174</v>
+      </c>
+      <c r="C3">
+        <v>14.03636807247855</v>
+      </c>
+      <c r="D3">
+        <v>6.741745640385808</v>
+      </c>
+      <c r="E3">
+        <v>10.85250964848997</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.058937124916927</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.08641424507586</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>59.62040366360275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>18.75175823884693</v>
+      </c>
+      <c r="C4">
+        <v>13.26430044830891</v>
+      </c>
+      <c r="D4">
+        <v>6.391606941567407</v>
+      </c>
+      <c r="E4">
+        <v>10.41005010991271</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.070159359618503</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.20155928244749</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>57.00510861023279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>18.30458871018967</v>
+      </c>
+      <c r="C5">
+        <v>12.94348999709652</v>
+      </c>
+      <c r="D5">
+        <v>6.245435430806821</v>
+      </c>
+      <c r="E5">
+        <v>10.2276680894411</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.074753574028167</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.83260895369996</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>55.92227173712625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>18.2297487848533</v>
+      </c>
+      <c r="C6">
+        <v>12.88983156470208</v>
+      </c>
+      <c r="D6">
+        <v>6.220948477408466</v>
+      </c>
+      <c r="E6">
+        <v>10.19725802563418</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.075518010686148</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.77082692510825</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>55.74142249443818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>18.74576663128888</v>
+      </c>
+      <c r="C7">
+        <v>13.25999959802304</v>
+      </c>
+      <c r="D7">
+        <v>6.389649954707065</v>
+      </c>
+      <c r="E7">
+        <v>10.40759886943436</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.070221219819459</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.19661794896025</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>56.99057490511632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>20.94121002591514</v>
+      </c>
+      <c r="C8">
+        <v>14.84058807845982</v>
+      </c>
+      <c r="D8">
+        <v>7.103938195680485</v>
+      </c>
+      <c r="E8">
+        <v>11.3176786267366</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.047002867268382</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.00337944085249</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>62.35454216290564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>24.99855769448325</v>
+      </c>
+      <c r="C9">
+        <v>17.79127118978721</v>
+      </c>
+      <c r="D9">
+        <v>8.409375069822374</v>
+      </c>
+      <c r="E9">
+        <v>13.04431705872343</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.001171162202792</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.32358233195835</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.40449232676673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>27.88586798558513</v>
+      </c>
+      <c r="C10">
+        <v>19.91971121719061</v>
+      </c>
+      <c r="D10">
+        <v>9.326397029359637</v>
+      </c>
+      <c r="E10">
+        <v>14.29215234240197</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.966240917544878</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>23.67207227785219</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>79.6056592423283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>29.19681417404657</v>
+      </c>
+      <c r="C11">
+        <v>20.89521184290228</v>
+      </c>
+      <c r="D11">
+        <v>9.739267215588328</v>
+      </c>
+      <c r="E11">
+        <v>14.86086556820086</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.94974600385067</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>24.73442020330596</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82.87770895698455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>29.69491053281587</v>
+      </c>
+      <c r="C12">
+        <v>21.26746299030166</v>
+      </c>
+      <c r="D12">
+        <v>9.895540104608564</v>
+      </c>
+      <c r="E12">
+        <v>15.077061904573</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.943374836183643</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>25.13739892278605</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>84.12047704698003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>29.58752330998298</v>
+      </c>
+      <c r="C13">
+        <v>21.18713053472544</v>
+      </c>
+      <c r="D13">
+        <v>9.861876741196074</v>
+      </c>
+      <c r="E13">
+        <v>15.03044946797176</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.944753264865281</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>25.05054978276032</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>83.85257650869085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>29.23774558132382</v>
+      </c>
+      <c r="C14">
+        <v>20.92576773693665</v>
+      </c>
+      <c r="D14">
+        <v>9.752121636335479</v>
+      </c>
+      <c r="E14">
+        <v>14.87863063412999</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.949224605441816</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24.76754912253322</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.97984841615356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>29.02378462407977</v>
+      </c>
+      <c r="C15">
+        <v>20.76610951707072</v>
+      </c>
+      <c r="D15">
+        <v>9.684902923071375</v>
+      </c>
+      <c r="E15">
+        <v>14.78577050005883</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.951945846272297</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24.59434683249853</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>82.44591087489559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>27.8003045543576</v>
+      </c>
+      <c r="C16">
+        <v>19.85624874289216</v>
+      </c>
+      <c r="D16">
+        <v>9.299371850788855</v>
+      </c>
+      <c r="E16">
+        <v>14.25506040573396</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.967303730030442</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>23.60264760423866</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>79.39208092997735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>27.05036740408967</v>
+      </c>
+      <c r="C17">
+        <v>19.30106785960702</v>
+      </c>
+      <c r="D17">
+        <v>9.062104988098195</v>
+      </c>
+      <c r="E17">
+        <v>13.93017861276419</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.976546632544895</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.9937110380779</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>77.52031502115418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>26.61863791285882</v>
+      </c>
+      <c r="C18">
+        <v>18.98229291301782</v>
+      </c>
+      <c r="D18">
+        <v>8.925191889727239</v>
+      </c>
+      <c r="E18">
+        <v>13.7433634639645</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.98180875765348</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.64278880656537</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>76.44304707667511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>26.47234275981688</v>
+      </c>
+      <c r="C19">
+        <v>18.87440883171252</v>
+      </c>
+      <c r="D19">
+        <v>8.878745071065474</v>
+      </c>
+      <c r="E19">
+        <v>13.68010206483775</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.983582107924764</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22.52381565442917</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>76.07807724263319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>27.13022651910527</v>
+      </c>
+      <c r="C20">
+        <v>19.36009940572647</v>
+      </c>
+      <c r="D20">
+        <v>9.087404880779683</v>
+      </c>
+      <c r="E20">
+        <v>13.96475359851096</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.9755685542114</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>23.05859368249165</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.71961115990892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>29.34041923252807</v>
+      </c>
+      <c r="C21">
+        <v>21.00244183895327</v>
+      </c>
+      <c r="D21">
+        <v>9.784356193367142</v>
+      </c>
+      <c r="E21">
+        <v>14.92319416112443</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.947915013471497</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24.850639860693</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>83.23604811318252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>30.79607687508702</v>
+      </c>
+      <c r="C22">
+        <v>22.09370364735407</v>
+      </c>
+      <c r="D22">
+        <v>10.23981541970062</v>
+      </c>
+      <c r="E22">
+        <v>15.55497580758829</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.929086936007181</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>26.02696453099745</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>86.86610300421718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>30.01729865114777</v>
+      </c>
+      <c r="C23">
+        <v>21.50888679721479</v>
+      </c>
+      <c r="D23">
+        <v>9.996506791982148</v>
+      </c>
+      <c r="E23">
+        <v>15.21699681716786</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.939220681682155</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.39802597505197</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>84.92460951930099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>27.09412416617739</v>
+      </c>
+      <c r="C24">
+        <v>19.33341010773914</v>
+      </c>
+      <c r="D24">
+        <v>9.075968411760295</v>
+      </c>
+      <c r="E24">
+        <v>13.94912240869196</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1.976010901896088</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23.02926295498339</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.62951330533599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23.9223130320753</v>
+      </c>
+      <c r="C25">
+        <v>17.00434313426048</v>
+      </c>
+      <c r="D25">
+        <v>8.064965753569604</v>
+      </c>
+      <c r="E25">
+        <v>12.58227814226553</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.01369872550166</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.44516271561903</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>69.72725586428862</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.51757135678999</v>
+        <v>12.93673087123423</v>
       </c>
       <c r="C2">
-        <v>15.25723253579146</v>
+        <v>8.117815365960015</v>
       </c>
       <c r="D2">
-        <v>7.290538973151052</v>
+        <v>9.55145991989299</v>
       </c>
       <c r="E2">
-        <v>11.5599974401828</v>
+        <v>9.236840193006724</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.040723726074793</v>
+        <v>31.7186214243265</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.57866475637038</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.509475285331275</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.47393679267948</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.939554071773967</v>
       </c>
       <c r="M2">
-        <v>18.47647729891067</v>
+        <v>10.15718655650618</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>63.77347244453174</v>
+        <v>19.78959342589511</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.82583303072174</v>
+        <v>12.15737447263486</v>
       </c>
       <c r="C3">
-        <v>14.03636807247855</v>
+        <v>8.143544185045871</v>
       </c>
       <c r="D3">
-        <v>6.741745640385808</v>
+        <v>9.383057323320386</v>
       </c>
       <c r="E3">
-        <v>10.85250964848997</v>
+        <v>9.254672092564801</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.058937124916927</v>
+        <v>31.68727939098891</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.66266929834332</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.535225729877356</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.897232485525862</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.872633200259075</v>
       </c>
       <c r="M3">
-        <v>17.08641424507586</v>
+        <v>9.866214166661127</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>59.62040366360275</v>
+        <v>19.88260148405996</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.75175823884693</v>
+        <v>11.65602035684158</v>
       </c>
       <c r="C4">
-        <v>13.26430044830891</v>
+        <v>8.16049339561253</v>
       </c>
       <c r="D4">
-        <v>6.391606941567407</v>
+        <v>9.283193574679112</v>
       </c>
       <c r="E4">
-        <v>10.41005010991271</v>
+        <v>9.269330947713788</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.070159359618503</v>
+        <v>31.69348420570851</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.71970484457802</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.551532215904741</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.525184590258203</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.833664126546666</v>
       </c>
       <c r="M4">
-        <v>16.20155928244749</v>
+        <v>9.686635686963658</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>57.00510861023279</v>
+        <v>19.95184614604168</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.30458871018967</v>
+        <v>11.44610272524114</v>
       </c>
       <c r="C5">
-        <v>12.94348999709652</v>
+        <v>8.167687998881476</v>
       </c>
       <c r="D5">
-        <v>6.245435430806821</v>
+        <v>9.24342238784468</v>
       </c>
       <c r="E5">
-        <v>10.2276680894411</v>
+        <v>9.276219959857613</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.074753574028167</v>
+        <v>31.70219404822976</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.74428392968579</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.558304000733529</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.36911642130258</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.818322947515775</v>
       </c>
       <c r="M5">
-        <v>15.83260895369996</v>
+        <v>9.613325677684172</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>55.92227173712625</v>
+        <v>19.98301549578921</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2297487848533</v>
+        <v>11.41091153360893</v>
       </c>
       <c r="C6">
-        <v>12.88983156470208</v>
+        <v>8.16889997852992</v>
       </c>
       <c r="D6">
-        <v>6.220948477408466</v>
+        <v>9.236875204409131</v>
       </c>
       <c r="E6">
-        <v>10.19725802563418</v>
+        <v>9.277418654748102</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.075518010686148</v>
+        <v>31.70400720369255</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.748444996949</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.559436167468866</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.342934322971722</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.815808264351518</v>
       </c>
       <c r="M6">
-        <v>15.77082692510825</v>
+        <v>9.601147798230347</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>55.74142249443818</v>
+        <v>19.98836653020408</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74576663128888</v>
+        <v>11.65321186230777</v>
       </c>
       <c r="C7">
-        <v>13.25999959802304</v>
+        <v>8.160589262216323</v>
       </c>
       <c r="D7">
-        <v>6.389649954707065</v>
+        <v>9.282653420292512</v>
       </c>
       <c r="E7">
-        <v>10.40759886943436</v>
+        <v>9.269420171874923</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.070221219819459</v>
+        <v>31.6935769323997</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.72003096016239</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.551623026543561</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.523097752819465</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.833455040508861</v>
       </c>
       <c r="M7">
-        <v>16.19661794896025</v>
+        <v>9.68564739250642</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>56.99057490511632</v>
+        <v>19.95225468647596</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.94121002591514</v>
+        <v>12.67281325047692</v>
       </c>
       <c r="C8">
-        <v>14.84058807845982</v>
+        <v>8.12644643861681</v>
       </c>
       <c r="D8">
-        <v>7.103938195680485</v>
+        <v>9.492682299355632</v>
       </c>
       <c r="E8">
-        <v>11.3176786267366</v>
+        <v>9.242208044753774</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.047002867268382</v>
+        <v>31.70240285899389</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.60647515809082</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.518252485670095</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.2788443145625</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.916043345690187</v>
       </c>
       <c r="M8">
-        <v>18.00337944085249</v>
+        <v>10.05710909918059</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>62.35454216290564</v>
+        <v>19.81908218063709</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.99855769448325</v>
+        <v>14.48704348240539</v>
       </c>
       <c r="C9">
-        <v>17.79127118978721</v>
+        <v>8.068724998674229</v>
       </c>
       <c r="D9">
-        <v>8.409375069822374</v>
+        <v>9.9310010664459</v>
       </c>
       <c r="E9">
-        <v>13.04431705872343</v>
+        <v>9.219075878978373</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.001171162202792</v>
+        <v>31.93114953376905</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.4287729972181</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.456644266317821</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.61666722485538</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.094537723177481</v>
       </c>
       <c r="M9">
-        <v>21.32358233195835</v>
+        <v>10.7741239004959</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>72.40449232676673</v>
+        <v>19.65888104834671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.88586798558513</v>
+        <v>15.7755539738551</v>
       </c>
       <c r="C10">
-        <v>19.91971121719061</v>
+        <v>8.032090421298193</v>
       </c>
       <c r="D10">
-        <v>9.326397029359637</v>
+        <v>10.26697742155481</v>
       </c>
       <c r="E10">
-        <v>14.29215234240197</v>
+        <v>9.221614814992654</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.966240917544878</v>
+        <v>32.24070675749559</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.32811157953827</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.413568646966453</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.51018107036273</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.235342757026508</v>
       </c>
       <c r="M10">
-        <v>23.67207227785219</v>
+        <v>11.28894931615766</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>79.6056592423283</v>
+        <v>19.60930985077928</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.19681417404657</v>
+        <v>16.3413892183279</v>
       </c>
       <c r="C11">
-        <v>20.89521184290228</v>
+        <v>8.016714097688491</v>
       </c>
       <c r="D11">
-        <v>9.739267215588328</v>
+        <v>10.42239266230745</v>
       </c>
       <c r="E11">
-        <v>14.86086556820086</v>
+        <v>9.227253255929933</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.94974600385067</v>
+        <v>32.41481332671339</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.28939434652296</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.394413432996734</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.89714822418648</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.301400819439681</v>
       </c>
       <c r="M11">
-        <v>24.73442020330596</v>
+        <v>11.5196555606886</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>82.87770895698455</v>
+        <v>19.60303026141478</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.69491053281587</v>
+        <v>16.55116238485044</v>
       </c>
       <c r="C12">
-        <v>21.26746299030166</v>
+        <v>8.011080206635997</v>
       </c>
       <c r="D12">
-        <v>9.895540104608564</v>
+        <v>10.48157838589493</v>
       </c>
       <c r="E12">
-        <v>15.077061904573</v>
+        <v>9.230053232602661</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.943374836183643</v>
+        <v>32.48572794398771</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.27580254105986</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.387220225773466</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.04087970096444</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.32669508114576</v>
       </c>
       <c r="M12">
-        <v>25.13739892278605</v>
+        <v>11.60645146572375</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>84.12047704698003</v>
+        <v>19.6031177975284</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.58752330998298</v>
+        <v>16.50618314227223</v>
       </c>
       <c r="C13">
-        <v>21.18713053472544</v>
+        <v>8.012285111484628</v>
       </c>
       <c r="D13">
-        <v>9.861876741196074</v>
+        <v>10.46881742719501</v>
       </c>
       <c r="E13">
-        <v>15.03044946797176</v>
+        <v>9.229420316091847</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.944753264865281</v>
+        <v>32.47023047908141</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.2786813441081</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.388766769439417</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.01004923498809</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.321235217485195</v>
       </c>
       <c r="M13">
-        <v>25.05054978276032</v>
+        <v>11.58778461497904</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>83.85257650869085</v>
+        <v>19.60298725723429</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.23774558132382</v>
+        <v>16.35873720417537</v>
       </c>
       <c r="C14">
-        <v>20.92576773693665</v>
+        <v>8.016246789704429</v>
       </c>
       <c r="D14">
-        <v>9.752121636335479</v>
+        <v>10.42725543292822</v>
       </c>
       <c r="E14">
-        <v>14.87863063412999</v>
+        <v>9.227470171461048</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.949224605441816</v>
+        <v>32.42054652111149</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.28825439406695</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.393820448592536</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.90902928914046</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.303476242013984</v>
       </c>
       <c r="M14">
-        <v>24.76754912253322</v>
+        <v>11.52680803353056</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>82.97984841615356</v>
+        <v>19.60298731995192</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.02378462407977</v>
+        <v>16.26783826462376</v>
       </c>
       <c r="C15">
-        <v>20.76610951707072</v>
+        <v>8.018698125075135</v>
       </c>
       <c r="D15">
-        <v>9.684902923071375</v>
+        <v>10.40183985064768</v>
       </c>
       <c r="E15">
-        <v>14.78577050005883</v>
+        <v>9.226362832714594</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.951945846272297</v>
+        <v>32.39076847993575</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.29425905859107</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.396923759789548</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.84678650146892</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.292634496531253</v>
       </c>
       <c r="M15">
-        <v>24.59434683249853</v>
+        <v>11.48938239654056</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>82.44591087489559</v>
+        <v>19.60331222149082</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.8003045543576</v>
+        <v>15.73794334482473</v>
       </c>
       <c r="C16">
-        <v>19.85624874289216</v>
+        <v>8.033121524425962</v>
       </c>
       <c r="D16">
-        <v>9.299371850788855</v>
+        <v>10.25686930392003</v>
       </c>
       <c r="E16">
-        <v>14.25506040573396</v>
+        <v>9.221338260326773</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.967303730030442</v>
+        <v>32.23001538585957</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.33078859411002</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.414829102600991</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.48449929236656</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.231065299373511</v>
       </c>
       <c r="M16">
-        <v>23.60264760423866</v>
+        <v>11.27379608953866</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>79.39208092997735</v>
+        <v>19.61005832633294</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.05036740408967</v>
+        <v>15.40480727581608</v>
       </c>
       <c r="C17">
-        <v>19.30106785960702</v>
+        <v>8.04230229681648</v>
       </c>
       <c r="D17">
-        <v>9.062104988098195</v>
+        <v>10.16856762431715</v>
       </c>
       <c r="E17">
-        <v>13.93017861276419</v>
+        <v>9.219418384104401</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.976546632544895</v>
+        <v>32.14006742689428</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.35504640115195</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.425924202526023</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.2572513365727</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.193801857546708</v>
       </c>
       <c r="M17">
-        <v>22.9937110380779</v>
+        <v>11.14059762846354</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>77.52031502115418</v>
+        <v>19.61845266860184</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.61863791285882</v>
+        <v>15.21021717071599</v>
       </c>
       <c r="C18">
-        <v>18.98229291301782</v>
+        <v>8.04770393115003</v>
       </c>
       <c r="D18">
-        <v>8.925191889727239</v>
+        <v>10.11802360717387</v>
       </c>
       <c r="E18">
-        <v>13.7433634639645</v>
+        <v>9.218734907981711</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.98180875765348</v>
+        <v>32.09145360957412</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.36966138847287</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.432347412638567</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.12470878179888</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.172558176548087</v>
       </c>
       <c r="M18">
-        <v>22.64278880656537</v>
+        <v>11.06366027109301</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>76.44304707667511</v>
+        <v>19.6248046212431</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.47234275981688</v>
+        <v>15.14381914569748</v>
       </c>
       <c r="C19">
-        <v>18.87440883171252</v>
+        <v>8.049553530042454</v>
       </c>
       <c r="D19">
-        <v>8.878745071065474</v>
+        <v>10.10095348284847</v>
       </c>
       <c r="E19">
-        <v>13.68010206483775</v>
+        <v>9.218575157241345</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.983582107924764</v>
+        <v>32.07552383702342</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.37472201940482</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.434529430307239</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.07951703670738</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.165398207734771</v>
       </c>
       <c r="M19">
-        <v>22.52381565442917</v>
+        <v>11.03755689558057</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>76.07807724263319</v>
+        <v>19.62721320550004</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.13022651910527</v>
+        <v>15.44057814061218</v>
       </c>
       <c r="C20">
-        <v>19.36009940572647</v>
+        <v>8.041312430845624</v>
       </c>
       <c r="D20">
-        <v>9.087404880779683</v>
+        <v>10.177942432975</v>
       </c>
       <c r="E20">
-        <v>13.96475359851096</v>
+        <v>9.219579063775893</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.9755685542114</v>
+        <v>32.14931798201886</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.35239517677567</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.42473882458181</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.28163226950572</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.197749090556248</v>
       </c>
       <c r="M20">
-        <v>23.05859368249165</v>
+        <v>11.15481098240386</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.71961115990892</v>
+        <v>19.61740047277769</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.34041923252807</v>
+        <v>16.4021672731367</v>
       </c>
       <c r="C21">
-        <v>21.00244183895327</v>
+        <v>8.015077996207886</v>
       </c>
       <c r="D21">
-        <v>9.784356193367142</v>
+        <v>10.43945443817954</v>
       </c>
       <c r="E21">
-        <v>14.92319416112443</v>
+        <v>9.228024771442037</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.947915013471497</v>
+        <v>32.43500309958494</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.28541309714366</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.392334443018442</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.93877738619458</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.308684967668899</v>
       </c>
       <c r="M21">
-        <v>24.850639860693</v>
+        <v>11.54473421937701</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>83.23604811318252</v>
+        <v>19.60291937170452</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.79607687508702</v>
+        <v>17.0044374886637</v>
       </c>
       <c r="C22">
-        <v>22.09370364735407</v>
+        <v>7.999034493770956</v>
       </c>
       <c r="D22">
-        <v>10.23981541970062</v>
+        <v>10.61229497582545</v>
       </c>
       <c r="E22">
-        <v>15.55497580758829</v>
+        <v>9.237429166507942</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.929086936007181</v>
+        <v>32.65085261662632</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.24789721300833</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.371507274717962</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.35191654361611</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.382813185125622</v>
       </c>
       <c r="M22">
-        <v>26.02696453099745</v>
+        <v>11.79623878769672</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>86.86610300421718</v>
+        <v>19.60788631266082</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.01729865114777</v>
+        <v>16.68537340200217</v>
       </c>
       <c r="C23">
-        <v>21.50888679721479</v>
+        <v>8.007495145396623</v>
       </c>
       <c r="D23">
-        <v>9.996506791982148</v>
+        <v>10.5198821289747</v>
       </c>
       <c r="E23">
-        <v>15.21699681716786</v>
+        <v>9.232047697549653</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.939220681682155</v>
+        <v>32.53292042110649</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.26732919102058</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.382591985953371</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.13291042689749</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.34310373210432</v>
       </c>
       <c r="M23">
-        <v>25.39802597505197</v>
+        <v>11.66233060786428</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>84.92460951930099</v>
+        <v>19.60387257561321</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.09412416617739</v>
+        <v>15.42441568551654</v>
       </c>
       <c r="C24">
-        <v>19.33341010773914</v>
+        <v>8.041759564876649</v>
       </c>
       <c r="D24">
-        <v>9.075968411760295</v>
+        <v>10.1737033882766</v>
       </c>
       <c r="E24">
-        <v>13.94912240869196</v>
+        <v>9.219505112916666</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.976010901896088</v>
+        <v>32.14512617009125</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.35359171591728</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.425274595163547</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.27061555107675</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.195963986525482</v>
       </c>
       <c r="M24">
-        <v>23.02926295498339</v>
+        <v>11.14838624067458</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>77.62951330533599</v>
+        <v>19.6178714270577</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.9223130320753</v>
+        <v>14.0165396589715</v>
       </c>
       <c r="C25">
-        <v>17.00434313426048</v>
+        <v>8.083337661297533</v>
       </c>
       <c r="D25">
-        <v>8.064965753569604</v>
+        <v>9.809817066319887</v>
       </c>
       <c r="E25">
-        <v>12.58227814226553</v>
+        <v>9.221984052881304</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.01369872550166</v>
+        <v>31.8453063142636</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.47178444014621</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.47291562025794</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.27038191039968</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.044520740396822</v>
       </c>
       <c r="M25">
-        <v>20.44516271561903</v>
+        <v>10.58192049184329</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>69.72725586428862</v>
+        <v>19.69074432277626</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.93673087123423</v>
+        <v>13.82124057048917</v>
       </c>
       <c r="C2">
-        <v>8.117815365960015</v>
+        <v>10.58938781678382</v>
       </c>
       <c r="D2">
-        <v>9.55145991989299</v>
+        <v>14.3139109059934</v>
       </c>
       <c r="E2">
-        <v>9.236840193006724</v>
+        <v>15.29003877717061</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>31.7186214243265</v>
+        <v>45.7940489551703</v>
       </c>
       <c r="H2">
-        <v>11.57866475637038</v>
+        <v>18.70076520889824</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.509475285331275</v>
+        <v>9.153608173510225</v>
       </c>
       <c r="K2">
-        <v>10.47393679267948</v>
+        <v>9.700054605270251</v>
       </c>
       <c r="L2">
-        <v>6.939554071773967</v>
+        <v>11.71034551229484</v>
       </c>
       <c r="M2">
-        <v>10.15718655650618</v>
+        <v>15.91853761412522</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.78959342589511</v>
+        <v>30.69852010392284</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.15737447263486</v>
+        <v>13.64745001079453</v>
       </c>
       <c r="C3">
-        <v>8.143544185045871</v>
+        <v>10.59723849102836</v>
       </c>
       <c r="D3">
-        <v>9.383057323320386</v>
+        <v>14.31911197166196</v>
       </c>
       <c r="E3">
-        <v>9.254672092564801</v>
+        <v>15.32134185581483</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>31.68727939098891</v>
+        <v>45.92198371876093</v>
       </c>
       <c r="H3">
-        <v>11.66266929834332</v>
+        <v>18.75267659057546</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.535225729877356</v>
+        <v>9.162557977095073</v>
       </c>
       <c r="K3">
-        <v>9.897232485525862</v>
+        <v>9.563580636293576</v>
       </c>
       <c r="L3">
-        <v>6.872633200259075</v>
+        <v>11.72024039019999</v>
       </c>
       <c r="M3">
-        <v>9.866214166661127</v>
+        <v>15.89829576650625</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.88260148405996</v>
+        <v>30.78847226914275</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.65602035684158</v>
+        <v>13.54195430372661</v>
       </c>
       <c r="C4">
-        <v>8.16049339561253</v>
+        <v>10.60253651706377</v>
       </c>
       <c r="D4">
-        <v>9.283193574679112</v>
+        <v>14.32468583258877</v>
       </c>
       <c r="E4">
-        <v>9.269330947713788</v>
+        <v>15.34229776787103</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.69348420570851</v>
+        <v>46.01014583138709</v>
       </c>
       <c r="H4">
-        <v>11.71970484457802</v>
+        <v>18.78696086766824</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.551532215904741</v>
+        <v>9.168340564120223</v>
       </c>
       <c r="K4">
-        <v>9.525184590258203</v>
+        <v>9.480163728448975</v>
       </c>
       <c r="L4">
-        <v>6.833664126546666</v>
+        <v>11.7275815944451</v>
       </c>
       <c r="M4">
-        <v>9.686635686963658</v>
+        <v>15.8878324333948</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.95184614604168</v>
+        <v>30.8486176595603</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.44610272524114</v>
+        <v>13.49931690667515</v>
       </c>
       <c r="C5">
-        <v>8.167687998881476</v>
+        <v>10.6048160129381</v>
       </c>
       <c r="D5">
-        <v>9.24342238784468</v>
+        <v>14.3275568170128</v>
       </c>
       <c r="E5">
-        <v>9.276219959857613</v>
+        <v>15.35127444635006</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.70219404822976</v>
+        <v>46.0484845708832</v>
       </c>
       <c r="H5">
-        <v>11.74428392968579</v>
+        <v>18.80153857883077</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.558304000733529</v>
+        <v>9.170769489008372</v>
       </c>
       <c r="K5">
-        <v>9.36911642130258</v>
+        <v>9.446304404618198</v>
       </c>
       <c r="L5">
-        <v>6.818322947515775</v>
+        <v>11.7308921302233</v>
       </c>
       <c r="M5">
-        <v>9.613325677684172</v>
+        <v>15.8840663124673</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.98301549578921</v>
+        <v>30.87436274419707</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.41091153360893</v>
+        <v>13.49225971313097</v>
       </c>
       <c r="C6">
-        <v>8.16889997852992</v>
+        <v>10.60520181132684</v>
       </c>
       <c r="D6">
-        <v>9.236875204409131</v>
+        <v>14.32806978156121</v>
       </c>
       <c r="E6">
-        <v>9.277418654748102</v>
+        <v>15.3527914242183</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.70400720369255</v>
+        <v>46.05499623000692</v>
       </c>
       <c r="H6">
-        <v>11.748444996949</v>
+        <v>18.80399584664683</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.559436167468866</v>
+        <v>9.171177193605756</v>
       </c>
       <c r="K6">
-        <v>9.342934322971722</v>
+        <v>9.440691293743333</v>
       </c>
       <c r="L6">
-        <v>6.815808264351518</v>
+        <v>11.73146112372955</v>
       </c>
       <c r="M6">
-        <v>9.601147798230347</v>
+        <v>15.88347111548307</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.98836653020408</v>
+        <v>30.87871229536582</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65321186230777</v>
+        <v>13.54137778857606</v>
       </c>
       <c r="C7">
-        <v>8.160589262216323</v>
+        <v>10.60256677069227</v>
       </c>
       <c r="D7">
-        <v>9.282653420292512</v>
+        <v>14.32472212275874</v>
       </c>
       <c r="E7">
-        <v>9.269420171874923</v>
+        <v>15.34241706051727</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.6935769323997</v>
+        <v>46.01065312121706</v>
       </c>
       <c r="H7">
-        <v>11.72003096016239</v>
+        <v>18.78715501111915</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.551623026543561</v>
+        <v>9.168373027725252</v>
       </c>
       <c r="K7">
-        <v>9.523097752819465</v>
+        <v>9.479706497326786</v>
       </c>
       <c r="L7">
-        <v>6.833455040508861</v>
+        <v>11.72762494927993</v>
       </c>
       <c r="M7">
-        <v>9.68564739250642</v>
+        <v>15.88777962213902</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.95225468647596</v>
+        <v>30.84895986546882</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67281325047692</v>
+        <v>13.76109492851296</v>
       </c>
       <c r="C8">
-        <v>8.12644643861681</v>
+        <v>10.59199582037841</v>
       </c>
       <c r="D8">
-        <v>9.492682299355632</v>
+        <v>14.31521085515881</v>
       </c>
       <c r="E8">
-        <v>9.242208044753774</v>
+        <v>15.30047214998434</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>31.70240285899389</v>
+        <v>45.83616377934489</v>
       </c>
       <c r="H8">
-        <v>11.60647515809082</v>
+        <v>18.71816423319913</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.518252485670095</v>
+        <v>9.156634549660552</v>
       </c>
       <c r="K8">
-        <v>10.2788443145625</v>
+        <v>9.652942874844969</v>
       </c>
       <c r="L8">
-        <v>6.916043345690187</v>
+        <v>11.71349497541246</v>
       </c>
       <c r="M8">
-        <v>10.05710909918059</v>
+        <v>15.9111525639485</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.81908218063709</v>
+        <v>30.7285153874499</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.48704348240539</v>
+        <v>14.19945296773748</v>
       </c>
       <c r="C9">
-        <v>8.068724998674229</v>
+        <v>10.5750393937145</v>
       </c>
       <c r="D9">
-        <v>9.9310010664459</v>
+        <v>14.31539470171666</v>
       </c>
       <c r="E9">
-        <v>9.219075878978373</v>
+        <v>15.23196714402258</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>31.93114953376905</v>
+        <v>45.57042845864152</v>
       </c>
       <c r="H9">
-        <v>11.4287729972181</v>
+        <v>18.6019791503991</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.456644266317821</v>
+        <v>9.13588588398107</v>
       </c>
       <c r="K9">
-        <v>11.61666722485538</v>
+        <v>9.993980512505155</v>
       </c>
       <c r="L9">
-        <v>7.094537723177481</v>
+        <v>11.69579919974916</v>
       </c>
       <c r="M9">
-        <v>10.7741239004959</v>
+        <v>15.97241382371303</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.65888104834671</v>
+        <v>30.53133555388071</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.7755539738551</v>
+        <v>14.5232391089091</v>
       </c>
       <c r="C10">
-        <v>8.032090421298193</v>
+        <v>10.56485910215129</v>
       </c>
       <c r="D10">
-        <v>10.26697742155481</v>
+        <v>14.32693242111556</v>
       </c>
       <c r="E10">
-        <v>9.221614814992654</v>
+        <v>15.18998660614901</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>32.24070675749559</v>
+        <v>45.4220350337384</v>
       </c>
       <c r="H10">
-        <v>11.32811157953827</v>
+        <v>18.528237120475</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.413568646966453</v>
+        <v>9.122012317632452</v>
       </c>
       <c r="K10">
-        <v>12.51018107036273</v>
+        <v>10.24312445627534</v>
       </c>
       <c r="L10">
-        <v>7.235342757026508</v>
+        <v>11.68886131830639</v>
       </c>
       <c r="M10">
-        <v>11.28894931615766</v>
+        <v>16.02659203052398</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.60930985077928</v>
+        <v>30.41027328169651</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.3413892183279</v>
+        <v>14.67031792847373</v>
       </c>
       <c r="C11">
-        <v>8.016714097688491</v>
+        <v>10.56071762733369</v>
       </c>
       <c r="D11">
-        <v>10.42239266230745</v>
+        <v>14.33463583302491</v>
       </c>
       <c r="E11">
-        <v>9.227253255929933</v>
+        <v>15.17269485088537</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32.41481332671339</v>
+        <v>45.3647440159957</v>
       </c>
       <c r="H11">
-        <v>11.28939434652296</v>
+        <v>18.49720707638798</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.394413432996734</v>
+        <v>9.115995555493342</v>
       </c>
       <c r="K11">
-        <v>12.89714822418648</v>
+        <v>10.35570252303317</v>
       </c>
       <c r="L11">
-        <v>7.301400819439681</v>
+        <v>11.68701215242966</v>
       </c>
       <c r="M11">
-        <v>11.5196555606886</v>
+        <v>16.05317522008836</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.60303026141478</v>
+        <v>30.36037263817737</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.55116238485044</v>
+        <v>14.72593370124027</v>
       </c>
       <c r="C12">
-        <v>8.011080206635997</v>
+        <v>10.559219373431</v>
       </c>
       <c r="D12">
-        <v>10.48157838589493</v>
+        <v>14.33790370581032</v>
       </c>
       <c r="E12">
-        <v>9.230053232602661</v>
+        <v>15.16640596411034</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>32.48572794398771</v>
+        <v>45.34452128927261</v>
       </c>
       <c r="H12">
-        <v>11.27580254105986</v>
+        <v>18.4858181245688</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.387220225773466</v>
+        <v>9.113759279606082</v>
       </c>
       <c r="K12">
-        <v>13.04087970096444</v>
+        <v>10.39818706989503</v>
       </c>
       <c r="L12">
-        <v>7.32669508114576</v>
+        <v>11.68649896390733</v>
       </c>
       <c r="M12">
-        <v>11.60645146572375</v>
+        <v>16.06351507204567</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.6031177975284</v>
+        <v>30.34222055009117</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.50618314227223</v>
+        <v>14.71396016675182</v>
       </c>
       <c r="C13">
-        <v>8.012285111484628</v>
+        <v>10.55953894036208</v>
       </c>
       <c r="D13">
-        <v>10.46881742719501</v>
+        <v>14.33718434905694</v>
       </c>
       <c r="E13">
-        <v>9.229420316091847</v>
+        <v>15.16774887163131</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>32.47023047908141</v>
+        <v>45.34881109178348</v>
       </c>
       <c r="H13">
-        <v>11.2786813441081</v>
+        <v>18.48825486791535</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.388766769439417</v>
+        <v>9.11423903042142</v>
       </c>
       <c r="K13">
-        <v>13.01004923498809</v>
+        <v>10.38904434902102</v>
       </c>
       <c r="L13">
-        <v>7.321235217485195</v>
+        <v>11.68660118365134</v>
       </c>
       <c r="M13">
-        <v>11.58778461497904</v>
+        <v>16.06127612674561</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.60298725723429</v>
+        <v>30.34609681946057</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.35873720417537</v>
+        <v>14.6748953475174</v>
       </c>
       <c r="C14">
-        <v>8.016246789704429</v>
+        <v>10.56059296363436</v>
       </c>
       <c r="D14">
-        <v>10.42725543292822</v>
+        <v>14.33489766684298</v>
       </c>
       <c r="E14">
-        <v>9.227470171461048</v>
+        <v>15.17217226996356</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>32.42054652111149</v>
+        <v>45.36305075823816</v>
       </c>
       <c r="H14">
-        <v>11.28825439406695</v>
+        <v>18.49626285803916</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.393820448592536</v>
+        <v>9.115810732248285</v>
       </c>
       <c r="K14">
-        <v>12.90902928914046</v>
+        <v>10.35920089335012</v>
       </c>
       <c r="L14">
-        <v>7.303476242013984</v>
+        <v>11.68696618854578</v>
       </c>
       <c r="M14">
-        <v>11.52680803353056</v>
+        <v>16.05402043769335</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.60298731995192</v>
+        <v>30.35886433679838</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.26783826462376</v>
+        <v>14.65095519062456</v>
       </c>
       <c r="C15">
-        <v>8.018698125075135</v>
+        <v>10.56124769270783</v>
       </c>
       <c r="D15">
-        <v>10.40183985064768</v>
+        <v>14.33354261647438</v>
       </c>
       <c r="E15">
-        <v>9.226362832714594</v>
+        <v>15.174915460263</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32.39076847993575</v>
+        <v>45.37196477486047</v>
       </c>
       <c r="H15">
-        <v>11.29425905859107</v>
+        <v>18.50121504661068</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.396923759789548</v>
+        <v>9.116778927379121</v>
       </c>
       <c r="K15">
-        <v>12.84678650146892</v>
+        <v>10.34090077701392</v>
       </c>
       <c r="L15">
-        <v>7.292634496531253</v>
+        <v>11.68721409711805</v>
       </c>
       <c r="M15">
-        <v>11.48938239654056</v>
+        <v>16.04961156187272</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.60331222149082</v>
+        <v>30.36678174381101</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.73794334482473</v>
+        <v>14.51361864521614</v>
       </c>
       <c r="C16">
-        <v>8.033121524425962</v>
+        <v>10.56513957743284</v>
       </c>
       <c r="D16">
-        <v>10.25686930392003</v>
+        <v>14.32647819598509</v>
       </c>
       <c r="E16">
-        <v>9.221338260326773</v>
+        <v>15.19115295079909</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>32.23001538585957</v>
+        <v>45.42598496521948</v>
       </c>
       <c r="H16">
-        <v>11.33078859411002</v>
+        <v>18.53031560226737</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.414829102600991</v>
+        <v>9.122411434674746</v>
       </c>
       <c r="K16">
-        <v>12.48449929236656</v>
+        <v>10.23574873626825</v>
       </c>
       <c r="L16">
-        <v>7.231065299373511</v>
+        <v>11.68900838971627</v>
       </c>
       <c r="M16">
-        <v>11.27379608953866</v>
+        <v>16.02489329988742</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.61005832633294</v>
+        <v>30.41363851522064</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.40480727581608</v>
+        <v>14.42927719558095</v>
       </c>
       <c r="C17">
-        <v>8.04230229681648</v>
+        <v>10.56765225487191</v>
       </c>
       <c r="D17">
-        <v>10.16856762431715</v>
+        <v>14.32277162164217</v>
       </c>
       <c r="E17">
-        <v>9.219418384104401</v>
+        <v>15.20157618789993</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>32.14006742689428</v>
+        <v>45.4617431649153</v>
       </c>
       <c r="H17">
-        <v>11.35504640115195</v>
+        <v>18.54881194650743</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.425924202526023</v>
+        <v>9.125942059381188</v>
       </c>
       <c r="K17">
-        <v>12.2572513365727</v>
+        <v>10.17102015001419</v>
       </c>
       <c r="L17">
-        <v>7.193801857546708</v>
+        <v>11.69044324865114</v>
       </c>
       <c r="M17">
-        <v>11.14059762846354</v>
+        <v>16.01022199836193</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.61845266860184</v>
+        <v>30.44370852703789</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.21021717071599</v>
+        <v>14.38074903439907</v>
       </c>
       <c r="C18">
-        <v>8.04770393115003</v>
+        <v>10.56914358508142</v>
       </c>
       <c r="D18">
-        <v>10.11802360717387</v>
+        <v>14.32087090857372</v>
       </c>
       <c r="E18">
-        <v>9.218734907981711</v>
+        <v>15.20774132115295</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>32.09145360957412</v>
+        <v>45.48327153743527</v>
       </c>
       <c r="H18">
-        <v>11.36966138847287</v>
+        <v>18.55968734909595</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.432347412638567</v>
+        <v>9.128000502340639</v>
       </c>
       <c r="K18">
-        <v>12.12470878179888</v>
+        <v>10.13372071116343</v>
       </c>
       <c r="L18">
-        <v>7.172558176548087</v>
+        <v>11.69139160988266</v>
       </c>
       <c r="M18">
-        <v>11.06366027109301</v>
+        <v>16.001966123176</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.6248046212431</v>
+        <v>30.46149070664611</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14381914569748</v>
+        <v>14.36431679750977</v>
       </c>
       <c r="C19">
-        <v>8.049553530042454</v>
+        <v>10.56965645367548</v>
       </c>
       <c r="D19">
-        <v>10.10095348284847</v>
+        <v>14.32026713512172</v>
       </c>
       <c r="E19">
-        <v>9.218575157241345</v>
+        <v>15.20985793534607</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>32.07552383702342</v>
+        <v>45.49072565200102</v>
       </c>
       <c r="H19">
-        <v>11.37472201940482</v>
+        <v>18.56341025197107</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.434529430307239</v>
+        <v>9.128702222745707</v>
       </c>
       <c r="K19">
-        <v>12.07951703670738</v>
+        <v>10.12108101988972</v>
       </c>
       <c r="L19">
-        <v>7.165398207734771</v>
+        <v>11.69173387191491</v>
       </c>
       <c r="M19">
-        <v>11.03755689558057</v>
+        <v>15.99920235393563</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.62721320550004</v>
+        <v>30.46759502033989</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.44057814061218</v>
+        <v>14.43825762584816</v>
       </c>
       <c r="C20">
-        <v>8.041312430845624</v>
+        <v>10.56738000710188</v>
       </c>
       <c r="D20">
-        <v>10.177942432975</v>
+        <v>14.3231422789499</v>
       </c>
       <c r="E20">
-        <v>9.219579063775893</v>
+        <v>15.2004490294958</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>32.14931798201886</v>
+        <v>45.45783713687857</v>
       </c>
       <c r="H20">
-        <v>11.35239517677567</v>
+        <v>18.54681847379682</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.42473882458181</v>
+        <v>9.125563350729509</v>
       </c>
       <c r="K20">
-        <v>12.28163226950572</v>
+        <v>10.17791806114403</v>
       </c>
       <c r="L20">
-        <v>7.197749090556248</v>
+        <v>11.69027777460154</v>
       </c>
       <c r="M20">
-        <v>11.15481098240386</v>
+        <v>16.0117649147821</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.61740047277769</v>
+        <v>30.44045714646385</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.4021672731367</v>
+        <v>14.6863721825143</v>
       </c>
       <c r="C21">
-        <v>8.015077996207886</v>
+        <v>10.56028147371927</v>
       </c>
       <c r="D21">
-        <v>10.43945443817954</v>
+        <v>14.33555982039227</v>
       </c>
       <c r="E21">
-        <v>9.228024771442037</v>
+        <v>15.1708659820083</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>32.43500309958494</v>
+        <v>45.35882824455273</v>
       </c>
       <c r="H21">
-        <v>11.28541309714366</v>
+        <v>18.49390090975735</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.392334443018442</v>
+        <v>9.115347943140122</v>
       </c>
       <c r="K21">
-        <v>12.93877738619458</v>
+        <v>10.36797090100604</v>
       </c>
       <c r="L21">
-        <v>7.308684967668899</v>
+        <v>11.68685390852089</v>
       </c>
       <c r="M21">
-        <v>11.54473421937701</v>
+        <v>16.05614423271345</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.60291937170452</v>
+        <v>30.35509400551526</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.0044374886637</v>
+        <v>14.84804249005375</v>
       </c>
       <c r="C22">
-        <v>7.999034493770956</v>
+        <v>10.55605020584553</v>
       </c>
       <c r="D22">
-        <v>10.61229497582545</v>
+        <v>14.34571868555274</v>
       </c>
       <c r="E22">
-        <v>9.237429166507942</v>
+        <v>15.15304189765047</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32.65085261662632</v>
+        <v>45.30270224797719</v>
       </c>
       <c r="H22">
-        <v>11.24789721300833</v>
+        <v>18.4614229142797</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.371507274717962</v>
+        <v>9.10891712794316</v>
       </c>
       <c r="K22">
-        <v>13.35191654361611</v>
+        <v>10.49131221595245</v>
       </c>
       <c r="L22">
-        <v>7.382813185125622</v>
+        <v>11.68570604561739</v>
       </c>
       <c r="M22">
-        <v>11.79623878769672</v>
+        <v>16.0867395477356</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.60788631266082</v>
+        <v>30.30364228484456</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.68537340200217</v>
+        <v>14.76181645194971</v>
       </c>
       <c r="C23">
-        <v>8.007495145396623</v>
+        <v>10.55827129971111</v>
       </c>
       <c r="D23">
-        <v>10.5198821289747</v>
+        <v>14.34011054778744</v>
       </c>
       <c r="E23">
-        <v>9.232047697549653</v>
+        <v>15.16241693297063</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>32.53292042110649</v>
+        <v>45.33187147449256</v>
       </c>
       <c r="H23">
-        <v>11.26732919102058</v>
+        <v>18.47856436239119</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.382591985953371</v>
+        <v>9.1123269707139</v>
       </c>
       <c r="K23">
-        <v>13.13291042689749</v>
+        <v>10.42557411883345</v>
       </c>
       <c r="L23">
-        <v>7.34310373210432</v>
+        <v>11.68621926525037</v>
       </c>
       <c r="M23">
-        <v>11.66233060786428</v>
+        <v>16.07026646511828</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.60387257561321</v>
+        <v>30.33070592234291</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.42441568551654</v>
+        <v>14.43419769147421</v>
       </c>
       <c r="C24">
-        <v>8.041759564876649</v>
+        <v>10.56750294464415</v>
       </c>
       <c r="D24">
-        <v>10.1737033882766</v>
+        <v>14.32297398743182</v>
       </c>
       <c r="E24">
-        <v>9.219505112916666</v>
+        <v>15.20095807991066</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>32.14512617009125</v>
+        <v>45.45960002933214</v>
       </c>
       <c r="H24">
-        <v>11.35359171591728</v>
+        <v>18.54771897018441</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.425274595163547</v>
+        <v>9.125734475685679</v>
       </c>
       <c r="K24">
-        <v>12.27061555107675</v>
+        <v>10.17479978089695</v>
       </c>
       <c r="L24">
-        <v>7.195963986525482</v>
+        <v>11.69035220084788</v>
       </c>
       <c r="M24">
-        <v>11.14838624067458</v>
+        <v>16.01106680477484</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.6178714270577</v>
+        <v>30.44192555522505</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.0165396589715</v>
+        <v>14.08035824877605</v>
       </c>
       <c r="C25">
-        <v>8.083337661297533</v>
+        <v>10.57922495894337</v>
       </c>
       <c r="D25">
-        <v>9.809817066319887</v>
+        <v>14.31333588948667</v>
       </c>
       <c r="E25">
-        <v>9.221984052881304</v>
+        <v>15.24903087957948</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>31.8453063142636</v>
+        <v>45.63410721524078</v>
       </c>
       <c r="H25">
-        <v>11.47178444014621</v>
+        <v>18.63136783253325</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.47291562025794</v>
+        <v>9.141257297527291</v>
       </c>
       <c r="K25">
-        <v>11.27038191039968</v>
+        <v>9.901811325287795</v>
       </c>
       <c r="L25">
-        <v>7.044520740396822</v>
+        <v>11.69951847521005</v>
       </c>
       <c r="M25">
-        <v>10.58192049184329</v>
+        <v>15.9542127547877</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.69074432277626</v>
+        <v>30.58049894665852</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.82124057048917</v>
+        <v>12.93673087123421</v>
       </c>
       <c r="C2">
-        <v>10.58938781678382</v>
+        <v>8.117815365960155</v>
       </c>
       <c r="D2">
-        <v>14.3139109059934</v>
+        <v>9.551459919893082</v>
       </c>
       <c r="E2">
-        <v>15.29003877717061</v>
+        <v>9.236840193006781</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>45.7940489551703</v>
+        <v>31.71862142432622</v>
       </c>
       <c r="H2">
-        <v>18.70076520889824</v>
+        <v>11.57866475637032</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.153608173510225</v>
+        <v>5.509475285331241</v>
       </c>
       <c r="K2">
-        <v>9.700054605270251</v>
+        <v>10.47393679267955</v>
       </c>
       <c r="L2">
-        <v>11.71034551229484</v>
+        <v>6.939554071773912</v>
       </c>
       <c r="M2">
-        <v>15.91853761412522</v>
+        <v>10.15718655650613</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.69852010392284</v>
+        <v>19.78959342589492</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.64745001079453</v>
+        <v>12.15737447263486</v>
       </c>
       <c r="C3">
-        <v>10.59723849102836</v>
+        <v>8.143544185045869</v>
       </c>
       <c r="D3">
-        <v>14.31911197166196</v>
+        <v>9.383057323320429</v>
       </c>
       <c r="E3">
-        <v>15.32134185581483</v>
+        <v>9.254672092564805</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.92198371876093</v>
+        <v>31.68727939098893</v>
       </c>
       <c r="H3">
-        <v>18.75267659057546</v>
+        <v>11.66266929834338</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.162557977095073</v>
+        <v>5.535225729877357</v>
       </c>
       <c r="K3">
-        <v>9.563580636293576</v>
+        <v>9.897232485525874</v>
       </c>
       <c r="L3">
-        <v>11.72024039019999</v>
+        <v>6.872633200259077</v>
       </c>
       <c r="M3">
-        <v>15.89829576650625</v>
+        <v>9.866214166661132</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.78847226914275</v>
+        <v>19.88260148406003</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.54195430372661</v>
+        <v>11.65602035684156</v>
       </c>
       <c r="C4">
-        <v>10.60253651706377</v>
+        <v>8.160493395612539</v>
       </c>
       <c r="D4">
-        <v>14.32468583258877</v>
+        <v>9.283193574679153</v>
       </c>
       <c r="E4">
-        <v>15.34229776787103</v>
+        <v>9.269330947713783</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46.01014583138709</v>
+        <v>31.69348420570839</v>
       </c>
       <c r="H4">
-        <v>18.78696086766824</v>
+        <v>11.71970484457796</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.168340564120223</v>
+        <v>5.551532215904774</v>
       </c>
       <c r="K4">
-        <v>9.480163728448975</v>
+        <v>9.525184590258231</v>
       </c>
       <c r="L4">
-        <v>11.7275815944451</v>
+        <v>6.83366412654672</v>
       </c>
       <c r="M4">
-        <v>15.8878324333948</v>
+        <v>9.68663568696366</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.8486176595603</v>
+        <v>19.95184614604158</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.49931690667515</v>
+        <v>11.44610272524112</v>
       </c>
       <c r="C5">
-        <v>10.6048160129381</v>
+        <v>8.167687998881489</v>
       </c>
       <c r="D5">
-        <v>14.3275568170128</v>
+        <v>9.243422387844657</v>
       </c>
       <c r="E5">
-        <v>15.35127444635006</v>
+        <v>9.276219959857674</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>46.0484845708832</v>
+        <v>31.70219404822951</v>
       </c>
       <c r="H5">
-        <v>18.80153857883077</v>
+        <v>11.74428392968567</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.170769489008372</v>
+        <v>5.55830400073353</v>
       </c>
       <c r="K5">
-        <v>9.446304404618198</v>
+        <v>9.369116421302625</v>
       </c>
       <c r="L5">
-        <v>11.7308921302233</v>
+        <v>6.818322947515811</v>
       </c>
       <c r="M5">
-        <v>15.8840663124673</v>
+        <v>9.613325677684175</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.87436274419707</v>
+        <v>19.98301549578906</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.49225971313097</v>
+        <v>11.4109115336089</v>
       </c>
       <c r="C6">
-        <v>10.60520181132684</v>
+        <v>8.168899978529923</v>
       </c>
       <c r="D6">
-        <v>14.32806978156121</v>
+        <v>9.236875204409042</v>
       </c>
       <c r="E6">
-        <v>15.3527914242183</v>
+        <v>9.27741865474805</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46.05499623000692</v>
+        <v>31.70400720369213</v>
       </c>
       <c r="H6">
-        <v>18.80399584664683</v>
+        <v>11.74844499694882</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.171177193605756</v>
+        <v>5.559436167468869</v>
       </c>
       <c r="K6">
-        <v>9.440691293743333</v>
+        <v>9.342934322971768</v>
       </c>
       <c r="L6">
-        <v>11.73146112372955</v>
+        <v>6.815808264351498</v>
       </c>
       <c r="M6">
-        <v>15.88347111548307</v>
+        <v>9.601147798230283</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.87871229536582</v>
+        <v>19.98836653020386</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.54137778857606</v>
+        <v>11.6532118623078</v>
       </c>
       <c r="C7">
-        <v>10.60256677069227</v>
+        <v>8.160589262216453</v>
       </c>
       <c r="D7">
-        <v>14.32472212275874</v>
+        <v>9.282653420292533</v>
       </c>
       <c r="E7">
-        <v>15.34241706051727</v>
+        <v>9.269420171874931</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>46.01065312121706</v>
+        <v>31.69357693239994</v>
       </c>
       <c r="H7">
-        <v>18.78715501111915</v>
+        <v>11.72003096016246</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.168373027725252</v>
+        <v>5.551623026543628</v>
       </c>
       <c r="K7">
-        <v>9.479706497326786</v>
+        <v>9.523097752819433</v>
       </c>
       <c r="L7">
-        <v>11.72762494927993</v>
+        <v>6.833455040508863</v>
       </c>
       <c r="M7">
-        <v>15.88777962213902</v>
+        <v>9.685647392506443</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.84895986546882</v>
+        <v>19.95225468647613</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.76109492851296</v>
+        <v>12.67281325047693</v>
       </c>
       <c r="C8">
-        <v>10.59199582037841</v>
+        <v>8.126446438616808</v>
       </c>
       <c r="D8">
-        <v>14.31521085515881</v>
+        <v>9.492682299355526</v>
       </c>
       <c r="E8">
-        <v>15.30047214998434</v>
+        <v>9.242208044753825</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.83616377934489</v>
+        <v>31.70240285899395</v>
       </c>
       <c r="H8">
-        <v>18.71816423319913</v>
+        <v>11.60647515809081</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.156634549660552</v>
+        <v>5.518252485670196</v>
       </c>
       <c r="K8">
-        <v>9.652942874844969</v>
+        <v>10.27884431456241</v>
       </c>
       <c r="L8">
-        <v>11.71349497541246</v>
+        <v>6.916043345690258</v>
       </c>
       <c r="M8">
-        <v>15.9111525639485</v>
+        <v>10.05710909918064</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.7285153874499</v>
+        <v>19.8190821806371</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.19945296773748</v>
+        <v>14.48704348240539</v>
       </c>
       <c r="C9">
-        <v>10.5750393937145</v>
+        <v>8.068724998674098</v>
       </c>
       <c r="D9">
-        <v>14.31539470171666</v>
+        <v>9.931001066445841</v>
       </c>
       <c r="E9">
-        <v>15.23196714402258</v>
+        <v>9.219075878978312</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>45.57042845864152</v>
+        <v>31.93114953376882</v>
       </c>
       <c r="H9">
-        <v>18.6019791503991</v>
+        <v>11.4287729972181</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.13588588398107</v>
+        <v>5.456644266317818</v>
       </c>
       <c r="K9">
-        <v>9.993980512505155</v>
+        <v>11.61666722485533</v>
       </c>
       <c r="L9">
-        <v>11.69579919974916</v>
+        <v>7.094537723177481</v>
       </c>
       <c r="M9">
-        <v>15.97241382371303</v>
+        <v>10.7741239004959</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.53133555388071</v>
+        <v>19.65888104834665</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.5232391089091</v>
+        <v>15.77555397385516</v>
       </c>
       <c r="C10">
-        <v>10.56485910215129</v>
+        <v>8.032090421298193</v>
       </c>
       <c r="D10">
-        <v>14.32693242111556</v>
+        <v>10.26697742155481</v>
       </c>
       <c r="E10">
-        <v>15.18998660614901</v>
+        <v>9.221614814992655</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>45.4220350337384</v>
+        <v>32.24070675749542</v>
       </c>
       <c r="H10">
-        <v>18.528237120475</v>
+        <v>11.32811157953823</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.122012317632452</v>
+        <v>5.413568646966421</v>
       </c>
       <c r="K10">
-        <v>10.24312445627534</v>
+        <v>12.51018107036282</v>
       </c>
       <c r="L10">
-        <v>11.68886131830639</v>
+        <v>7.235342757026457</v>
       </c>
       <c r="M10">
-        <v>16.02659203052398</v>
+        <v>11.28894931615759</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>30.41027328169651</v>
+        <v>19.60930985077917</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.67031792847373</v>
+        <v>16.34138921832791</v>
       </c>
       <c r="C11">
-        <v>10.56071762733369</v>
+        <v>8.016714097688627</v>
       </c>
       <c r="D11">
-        <v>14.33463583302491</v>
+        <v>10.4223926623074</v>
       </c>
       <c r="E11">
-        <v>15.17269485088537</v>
+        <v>9.227253255929826</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.3647440159957</v>
+        <v>32.41481332671318</v>
       </c>
       <c r="H11">
-        <v>18.49720707638798</v>
+        <v>11.28939434652295</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.115995555493342</v>
+        <v>5.394413432996668</v>
       </c>
       <c r="K11">
-        <v>10.35570252303317</v>
+        <v>12.89714822418652</v>
       </c>
       <c r="L11">
-        <v>11.68701215242966</v>
+        <v>7.30140081943968</v>
       </c>
       <c r="M11">
-        <v>16.05317522008836</v>
+        <v>11.51965556068855</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>30.36037263817737</v>
+        <v>19.60303026141466</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.72593370124027</v>
+        <v>16.55116238485039</v>
       </c>
       <c r="C12">
-        <v>10.559219373431</v>
+        <v>8.011080206636388</v>
       </c>
       <c r="D12">
-        <v>14.33790370581032</v>
+        <v>10.48157838589498</v>
       </c>
       <c r="E12">
-        <v>15.16640596411034</v>
+        <v>9.23005323260287</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.34452128927261</v>
+        <v>32.48572794398778</v>
       </c>
       <c r="H12">
-        <v>18.4858181245688</v>
+        <v>11.27580254105992</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.113759279606082</v>
+        <v>5.387220225773701</v>
       </c>
       <c r="K12">
-        <v>10.39818706989503</v>
+        <v>13.04087970096444</v>
       </c>
       <c r="L12">
-        <v>11.68649896390733</v>
+        <v>7.326695081145848</v>
       </c>
       <c r="M12">
-        <v>16.06351507204567</v>
+        <v>11.60645146572381</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>30.34222055009117</v>
+        <v>19.60311779752849</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.71396016675182</v>
+        <v>16.5061831422722</v>
       </c>
       <c r="C13">
-        <v>10.55953894036208</v>
+        <v>8.012285111484756</v>
       </c>
       <c r="D13">
-        <v>14.33718434905694</v>
+        <v>10.46881742719501</v>
       </c>
       <c r="E13">
-        <v>15.16774887163131</v>
+        <v>9.2294203160919</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.34881109178348</v>
+        <v>32.47023047908161</v>
       </c>
       <c r="H13">
-        <v>18.48825486791535</v>
+        <v>11.27868134410807</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.11423903042142</v>
+        <v>5.38876676943945</v>
       </c>
       <c r="K13">
-        <v>10.38904434902102</v>
+        <v>13.01004923498808</v>
       </c>
       <c r="L13">
-        <v>11.68660118365134</v>
+        <v>7.321235217485181</v>
       </c>
       <c r="M13">
-        <v>16.06127612674561</v>
+        <v>11.58778461497905</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>30.34609681946057</v>
+        <v>19.60298725723431</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.6748953475174</v>
+        <v>16.35873720417542</v>
       </c>
       <c r="C14">
-        <v>10.56059296363436</v>
+        <v>8.016246789704299</v>
       </c>
       <c r="D14">
-        <v>14.33489766684298</v>
+        <v>10.42725543292813</v>
       </c>
       <c r="E14">
-        <v>15.17217226996356</v>
+        <v>9.227470171460951</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.36305075823816</v>
+        <v>32.42054652111114</v>
       </c>
       <c r="H14">
-        <v>18.49626285803916</v>
+        <v>11.28825439406683</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.115810732248285</v>
+        <v>5.393820448592536</v>
       </c>
       <c r="K14">
-        <v>10.35920089335012</v>
+        <v>12.90902928914049</v>
       </c>
       <c r="L14">
-        <v>11.68696618854578</v>
+        <v>7.303476242013955</v>
       </c>
       <c r="M14">
-        <v>16.05402043769335</v>
+        <v>11.52680803353052</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>30.35886433679838</v>
+        <v>19.60298731995174</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.65095519062456</v>
+        <v>16.26783826462382</v>
       </c>
       <c r="C15">
-        <v>10.56124769270783</v>
+        <v>8.018698125075266</v>
       </c>
       <c r="D15">
-        <v>14.33354261647438</v>
+        <v>10.40183985064776</v>
       </c>
       <c r="E15">
-        <v>15.174915460263</v>
+        <v>9.226362832714708</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.37196477486047</v>
+        <v>32.39076847993548</v>
       </c>
       <c r="H15">
-        <v>18.50121504661068</v>
+        <v>11.29425905859099</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.116778927379121</v>
+        <v>5.396923759789582</v>
       </c>
       <c r="K15">
-        <v>10.34090077701392</v>
+        <v>12.84678650146901</v>
       </c>
       <c r="L15">
-        <v>11.68721409711805</v>
+        <v>7.292634496531303</v>
       </c>
       <c r="M15">
-        <v>16.04961156187272</v>
+        <v>11.48938239654055</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>30.36678174381101</v>
+        <v>19.60331222149065</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.51361864521614</v>
+        <v>15.73794334482472</v>
       </c>
       <c r="C16">
-        <v>10.56513957743284</v>
+        <v>8.033121524426079</v>
       </c>
       <c r="D16">
-        <v>14.32647819598509</v>
+        <v>10.25686930392001</v>
       </c>
       <c r="E16">
-        <v>15.19115295079909</v>
+        <v>9.221338260326828</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>45.42598496521948</v>
+        <v>32.23001538585946</v>
       </c>
       <c r="H16">
-        <v>18.53031560226737</v>
+        <v>11.33078859410996</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.122411434674746</v>
+        <v>5.414829102601057</v>
       </c>
       <c r="K16">
-        <v>10.23574873626825</v>
+        <v>12.4844992923666</v>
       </c>
       <c r="L16">
-        <v>11.68900838971627</v>
+        <v>7.231065299373462</v>
       </c>
       <c r="M16">
-        <v>16.02489329988742</v>
+        <v>11.27379608953862</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>30.41363851522064</v>
+        <v>19.61005832633283</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.42927719558095</v>
+        <v>15.40480727581611</v>
       </c>
       <c r="C17">
-        <v>10.56765225487191</v>
+        <v>8.042302296816608</v>
       </c>
       <c r="D17">
-        <v>14.32277162164217</v>
+        <v>10.16856762431731</v>
       </c>
       <c r="E17">
-        <v>15.20157618789993</v>
+        <v>9.219418384104566</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>45.4617431649153</v>
+        <v>32.14006742689418</v>
       </c>
       <c r="H17">
-        <v>18.54881194650743</v>
+        <v>11.35504640115189</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.125942059381188</v>
+        <v>5.425924202526056</v>
       </c>
       <c r="K17">
-        <v>10.17102015001419</v>
+        <v>12.25725133657274</v>
       </c>
       <c r="L17">
-        <v>11.69044324865114</v>
+        <v>7.193801857546776</v>
       </c>
       <c r="M17">
-        <v>16.01022199836193</v>
+        <v>11.14059762846357</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.44370852703789</v>
+        <v>19.61845266860171</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.38074903439907</v>
+        <v>15.21021717071601</v>
       </c>
       <c r="C18">
-        <v>10.56914358508142</v>
+        <v>8.047703931150025</v>
       </c>
       <c r="D18">
-        <v>14.32087090857372</v>
+        <v>10.11802360717395</v>
       </c>
       <c r="E18">
-        <v>15.20774132115295</v>
+        <v>9.218734907981768</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>45.48327153743527</v>
+        <v>32.09145360957423</v>
       </c>
       <c r="H18">
-        <v>18.55968734909595</v>
+        <v>11.36966138847281</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.128000502340639</v>
+        <v>5.432347412638568</v>
       </c>
       <c r="K18">
-        <v>10.13372071116343</v>
+        <v>12.12470878179888</v>
       </c>
       <c r="L18">
-        <v>11.69139160988266</v>
+        <v>7.172558176548134</v>
       </c>
       <c r="M18">
-        <v>16.001966123176</v>
+        <v>11.06366027109303</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.46149070664611</v>
+        <v>19.6248046212431</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36431679750977</v>
+        <v>15.14381914569748</v>
       </c>
       <c r="C19">
-        <v>10.56965645367548</v>
+        <v>8.04955353004271</v>
       </c>
       <c r="D19">
-        <v>14.32026713512172</v>
+        <v>10.10095348284847</v>
       </c>
       <c r="E19">
-        <v>15.20985793534607</v>
+        <v>9.218575157241343</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>45.49072565200102</v>
+        <v>32.07552383702333</v>
       </c>
       <c r="H19">
-        <v>18.56341025197107</v>
+        <v>11.37472201940493</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.128702222745707</v>
+        <v>5.434529430307306</v>
       </c>
       <c r="K19">
-        <v>10.12108101988972</v>
+        <v>12.07951703670739</v>
       </c>
       <c r="L19">
-        <v>11.69173387191491</v>
+        <v>7.165398207734798</v>
       </c>
       <c r="M19">
-        <v>15.99920235393563</v>
+        <v>11.03755689558058</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.46759502033989</v>
+        <v>19.62721320550007</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.43825762584816</v>
+        <v>15.44057814061223</v>
       </c>
       <c r="C20">
-        <v>10.56738000710188</v>
+        <v>8.041312430845494</v>
       </c>
       <c r="D20">
-        <v>14.3231422789499</v>
+        <v>10.177942432975</v>
       </c>
       <c r="E20">
-        <v>15.2004490294958</v>
+        <v>9.219579063775786</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>45.45783713687857</v>
+        <v>32.14931798201883</v>
       </c>
       <c r="H20">
-        <v>18.54681847379682</v>
+        <v>11.35239517677567</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.125563350729509</v>
+        <v>5.424738824581709</v>
       </c>
       <c r="K20">
-        <v>10.17791806114403</v>
+        <v>12.28163226950574</v>
       </c>
       <c r="L20">
-        <v>11.69027777460154</v>
+        <v>7.197749090556223</v>
       </c>
       <c r="M20">
-        <v>16.0117649147821</v>
+        <v>11.15481098240383</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.44045714646385</v>
+        <v>19.61740047277768</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.6863721825143</v>
+        <v>16.40216727313673</v>
       </c>
       <c r="C21">
-        <v>10.56028147371927</v>
+        <v>8.015077996207763</v>
       </c>
       <c r="D21">
-        <v>14.33555982039227</v>
+        <v>10.43945443817958</v>
       </c>
       <c r="E21">
-        <v>15.1708659820083</v>
+        <v>9.228024771442026</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.35882824455273</v>
+        <v>32.435003099585</v>
       </c>
       <c r="H21">
-        <v>18.49390090975735</v>
+        <v>11.28541309714361</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.115347943140122</v>
+        <v>5.392334443018409</v>
       </c>
       <c r="K21">
-        <v>10.36797090100604</v>
+        <v>12.93877738619458</v>
       </c>
       <c r="L21">
-        <v>11.68685390852089</v>
+        <v>7.308684967668942</v>
       </c>
       <c r="M21">
-        <v>16.05614423271345</v>
+        <v>11.544734219377</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>30.35509400551526</v>
+        <v>19.60291937170451</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.84804249005375</v>
+        <v>17.00443748866368</v>
       </c>
       <c r="C22">
-        <v>10.55605020584553</v>
+        <v>7.999034493770958</v>
       </c>
       <c r="D22">
-        <v>14.34571868555274</v>
+        <v>10.61229497582548</v>
       </c>
       <c r="E22">
-        <v>15.15304189765047</v>
+        <v>9.237429166507779</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.30270224797719</v>
+        <v>32.65085261662609</v>
       </c>
       <c r="H22">
-        <v>18.4614229142797</v>
+        <v>11.24789721300827</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.10891712794316</v>
+        <v>5.37150727471786</v>
       </c>
       <c r="K22">
-        <v>10.49131221595245</v>
+        <v>13.35191654361615</v>
       </c>
       <c r="L22">
-        <v>11.68570604561739</v>
+        <v>7.382813185125586</v>
       </c>
       <c r="M22">
-        <v>16.0867395477356</v>
+        <v>11.79623878769668</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>30.30364228484456</v>
+        <v>19.6078863126607</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.76181645194971</v>
+        <v>16.68537340200215</v>
       </c>
       <c r="C23">
-        <v>10.55827129971111</v>
+        <v>8.007495145396637</v>
       </c>
       <c r="D23">
-        <v>14.34011054778744</v>
+        <v>10.51988212897472</v>
       </c>
       <c r="E23">
-        <v>15.16241693297063</v>
+        <v>9.232047697549698</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.33187147449256</v>
+        <v>32.53292042110654</v>
       </c>
       <c r="H23">
-        <v>18.47856436239119</v>
+        <v>11.26732919102052</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.1123269707139</v>
+        <v>5.382591985953371</v>
       </c>
       <c r="K23">
-        <v>10.42557411883345</v>
+        <v>13.13291042689749</v>
       </c>
       <c r="L23">
-        <v>11.68621926525037</v>
+        <v>7.343103732104341</v>
       </c>
       <c r="M23">
-        <v>16.07026646511828</v>
+        <v>11.66233060786428</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>30.33070592234291</v>
+        <v>19.60387257561312</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.43419769147421</v>
+        <v>15.42441568551655</v>
       </c>
       <c r="C24">
-        <v>10.56750294464415</v>
+        <v>8.041759564876921</v>
       </c>
       <c r="D24">
-        <v>14.32297398743182</v>
+        <v>10.17370338827676</v>
       </c>
       <c r="E24">
-        <v>15.20095807991066</v>
+        <v>9.21950511291683</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>45.45960002933214</v>
+        <v>32.14512617009081</v>
       </c>
       <c r="H24">
-        <v>18.54771897018441</v>
+        <v>11.35359171591729</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.125734475685679</v>
+        <v>5.425274595163616</v>
       </c>
       <c r="K24">
-        <v>10.17479978089695</v>
+        <v>12.27061555107682</v>
       </c>
       <c r="L24">
-        <v>11.69035220084788</v>
+        <v>7.195963986525513</v>
       </c>
       <c r="M24">
-        <v>16.01106680477484</v>
+        <v>11.1483862406746</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>30.44192555522505</v>
+        <v>19.61787142705755</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.08035824877605</v>
+        <v>14.0165396589715</v>
       </c>
       <c r="C25">
-        <v>10.57922495894337</v>
+        <v>8.083337661297668</v>
       </c>
       <c r="D25">
-        <v>14.31333588948667</v>
+        <v>9.809817066320072</v>
       </c>
       <c r="E25">
-        <v>15.24903087957948</v>
+        <v>9.221984052881371</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>45.63410721524078</v>
+        <v>31.8453063142633</v>
       </c>
       <c r="H25">
-        <v>18.63136783253325</v>
+        <v>11.47178444014616</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.141257297527291</v>
+        <v>5.472915620257905</v>
       </c>
       <c r="K25">
-        <v>9.901811325287795</v>
+        <v>11.27038191039975</v>
       </c>
       <c r="L25">
-        <v>11.69951847521005</v>
+        <v>7.044520740396817</v>
       </c>
       <c r="M25">
-        <v>15.9542127547877</v>
+        <v>10.58192049184329</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.58049894665852</v>
+        <v>19.69074432277606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.93673087123421</v>
+        <v>20.57510263022145</v>
       </c>
       <c r="C2">
-        <v>8.117815365960155</v>
+        <v>16.18914103413453</v>
       </c>
       <c r="D2">
-        <v>9.551459919893082</v>
+        <v>7.179819609481666</v>
       </c>
       <c r="E2">
-        <v>9.236840193006781</v>
+        <v>13.99436744114584</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>31.71862142432622</v>
+        <v>20.58048939338826</v>
       </c>
       <c r="H2">
-        <v>11.57866475637032</v>
+        <v>2.17990885735312</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.176131293211195</v>
       </c>
       <c r="J2">
-        <v>5.509475285331241</v>
+        <v>8.05393045667069</v>
       </c>
       <c r="K2">
-        <v>10.47393679267955</v>
+        <v>11.44764984622681</v>
       </c>
       <c r="L2">
-        <v>6.939554071773912</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.15718655650613</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.78959342589492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.68572594906506</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.09084730046466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.15737447263486</v>
+        <v>19.28139393230775</v>
       </c>
       <c r="C3">
-        <v>8.143544185045869</v>
+        <v>15.29635469327047</v>
       </c>
       <c r="D3">
-        <v>9.383057323320429</v>
+        <v>6.687555352467697</v>
       </c>
       <c r="E3">
-        <v>9.254672092564805</v>
+        <v>13.38660255930584</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>31.68727939098893</v>
+        <v>19.8984887519996</v>
       </c>
       <c r="H3">
-        <v>11.66266929834338</v>
+        <v>1.970651963938438</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.019310016283505</v>
       </c>
       <c r="J3">
-        <v>5.535225729877357</v>
+        <v>8.053618178311575</v>
       </c>
       <c r="K3">
-        <v>9.897232485525874</v>
+        <v>11.65507220718609</v>
       </c>
       <c r="L3">
-        <v>6.872633200259077</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.866214166661132</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.88260148406003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.62263411985329</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.94585642279268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.65602035684156</v>
+        <v>18.43992308568479</v>
       </c>
       <c r="C4">
-        <v>8.160493395612539</v>
+        <v>14.72459981356141</v>
       </c>
       <c r="D4">
-        <v>9.283193574679153</v>
+        <v>6.367908858227994</v>
       </c>
       <c r="E4">
-        <v>9.269330947713783</v>
+        <v>12.99775899029543</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.69348420570839</v>
+        <v>19.48355140079534</v>
       </c>
       <c r="H4">
-        <v>11.71970484457796</v>
+        <v>1.837712255408379</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.920401899884823</v>
       </c>
       <c r="J4">
-        <v>5.551532215904774</v>
+        <v>8.057357855347917</v>
       </c>
       <c r="K4">
-        <v>9.525184590258231</v>
+        <v>11.78776865730001</v>
       </c>
       <c r="L4">
-        <v>6.83366412654672</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.68663568696366</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.95184614604158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.93527870961288</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.86421079489799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.44610272524112</v>
+        <v>18.08450912212847</v>
       </c>
       <c r="C5">
-        <v>8.167687998881489</v>
+        <v>14.49761582078748</v>
       </c>
       <c r="D5">
-        <v>9.243422387844657</v>
+        <v>6.233231762871163</v>
       </c>
       <c r="E5">
-        <v>9.276219959857674</v>
+        <v>12.83352522236799</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.70219404822951</v>
+        <v>19.29825802065328</v>
       </c>
       <c r="H5">
-        <v>11.74428392968567</v>
+        <v>1.782277246443353</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.879895855732153</v>
       </c>
       <c r="J5">
-        <v>5.55830400073353</v>
+        <v>8.057054350337671</v>
       </c>
       <c r="K5">
-        <v>9.369116421302625</v>
+        <v>11.83774758585308</v>
       </c>
       <c r="L5">
-        <v>6.818322947515811</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.613325677684175</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.98301549578906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.64840476967551</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.82563576567811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.4109115336089</v>
+        <v>18.02395208211906</v>
       </c>
       <c r="C6">
-        <v>8.168899978529923</v>
+        <v>14.47405851496283</v>
       </c>
       <c r="D6">
-        <v>9.236875204409042</v>
+        <v>6.21276686892898</v>
       </c>
       <c r="E6">
-        <v>9.27741865474805</v>
+        <v>12.80366260012043</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.70400720369213</v>
+        <v>19.24630173551705</v>
       </c>
       <c r="H6">
-        <v>11.74844499694882</v>
+        <v>1.772852666220696</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.873896037576517</v>
       </c>
       <c r="J6">
-        <v>5.559436167468869</v>
+        <v>8.05365946315762</v>
       </c>
       <c r="K6">
-        <v>9.342934322971768</v>
+        <v>11.83954770939638</v>
       </c>
       <c r="L6">
-        <v>6.815808264351498</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.601147798230283</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.98836653020386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.60251104326627</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.81062672291515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.6532118623078</v>
+        <v>18.43297784264412</v>
       </c>
       <c r="C7">
-        <v>8.160589262216453</v>
+        <v>14.76037122770839</v>
       </c>
       <c r="D7">
-        <v>9.282653420292533</v>
+        <v>6.366055093592632</v>
       </c>
       <c r="E7">
-        <v>9.269420171874931</v>
+        <v>12.98922832782615</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.69357693239994</v>
+        <v>19.42360967645168</v>
       </c>
       <c r="H7">
-        <v>11.72003096016246</v>
+        <v>1.8365681597292</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.92162172950828</v>
       </c>
       <c r="J7">
-        <v>5.551623026543628</v>
+        <v>8.048075602758013</v>
       </c>
       <c r="K7">
-        <v>9.523097752819433</v>
+        <v>11.77042735652389</v>
       </c>
       <c r="L7">
-        <v>6.833455040508863</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.685647392506443</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.95225468647613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.93747132893555</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.8399849301795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67281325047693</v>
+        <v>20.13615548600051</v>
       </c>
       <c r="C8">
-        <v>8.126446438616808</v>
+        <v>15.93444200944772</v>
       </c>
       <c r="D8">
-        <v>9.492682299355526</v>
+        <v>7.013604572429824</v>
       </c>
       <c r="E8">
-        <v>9.242208044753825</v>
+        <v>13.78026660970529</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>31.70240285899395</v>
+        <v>20.27180938182108</v>
       </c>
       <c r="H8">
-        <v>11.60647515809081</v>
+        <v>2.108183009552054</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.124463263253778</v>
       </c>
       <c r="J8">
-        <v>5.518252485670196</v>
+        <v>8.04079542517357</v>
       </c>
       <c r="K8">
-        <v>10.27884431456241</v>
+        <v>11.49400752321263</v>
       </c>
       <c r="L8">
-        <v>6.916043345690258</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.05710909918064</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.8190821806371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.33377390896905</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.0084687043989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.48704348240539</v>
+        <v>23.10551537766596</v>
       </c>
       <c r="C9">
-        <v>8.068724998674098</v>
+        <v>17.98282220694138</v>
       </c>
       <c r="D9">
-        <v>9.931001066445841</v>
+        <v>8.146824847996276</v>
       </c>
       <c r="E9">
-        <v>9.219075878978312</v>
+        <v>15.21402681156138</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>31.93114953376882</v>
+        <v>22.05312920290504</v>
       </c>
       <c r="H9">
-        <v>11.4287729972181</v>
+        <v>2.60691796290574</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.500038605739982</v>
       </c>
       <c r="J9">
-        <v>5.456644266317818</v>
+        <v>8.075739956161074</v>
       </c>
       <c r="K9">
-        <v>11.61666722485533</v>
+        <v>11.02938328961286</v>
       </c>
       <c r="L9">
-        <v>7.094537723177481</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.7741239004959</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.65888104834665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.78515086340627</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.44026687804713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.77555397385516</v>
+        <v>25.12121298198162</v>
       </c>
       <c r="C10">
-        <v>8.032090421298193</v>
+        <v>19.41006326080886</v>
       </c>
       <c r="D10">
-        <v>10.26697742155481</v>
+        <v>8.897354314475454</v>
       </c>
       <c r="E10">
-        <v>9.221614814992655</v>
+        <v>15.67877145805065</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>32.24070675749542</v>
+        <v>23.09311222300455</v>
       </c>
       <c r="H10">
-        <v>11.32811157953823</v>
+        <v>2.930920257043664</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.762020369712157</v>
       </c>
       <c r="J10">
-        <v>5.413568646966421</v>
+        <v>8.074291534077453</v>
       </c>
       <c r="K10">
-        <v>12.51018107036282</v>
+        <v>10.63939119339009</v>
       </c>
       <c r="L10">
-        <v>7.235342757026457</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.28894931615759</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.60930985077917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.15647158323527</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.67418978963518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.34138921832791</v>
+        <v>26.52080374155883</v>
       </c>
       <c r="C11">
-        <v>8.016714097688627</v>
+        <v>20.3075913978</v>
       </c>
       <c r="D11">
-        <v>10.4223926623074</v>
+        <v>9.217520550581769</v>
       </c>
       <c r="E11">
-        <v>9.227253255929826</v>
+        <v>11.90749559453637</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32.41481332671318</v>
+        <v>21.38103363847582</v>
       </c>
       <c r="H11">
-        <v>11.28939434652295</v>
+        <v>3.531244141410603</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.855244082494007</v>
       </c>
       <c r="J11">
-        <v>5.394413432996668</v>
+        <v>7.677083231299259</v>
       </c>
       <c r="K11">
-        <v>12.89714822418652</v>
+        <v>9.855408343744006</v>
       </c>
       <c r="L11">
-        <v>7.30140081943968</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.51965556068855</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.60303026141466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.51805842090212</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.80073946813084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.55116238485039</v>
+        <v>27.30314850089168</v>
       </c>
       <c r="C12">
-        <v>8.011080206636388</v>
+        <v>20.73244632397479</v>
       </c>
       <c r="D12">
-        <v>10.48157838589498</v>
+        <v>9.335144561412378</v>
       </c>
       <c r="E12">
-        <v>9.23005323260287</v>
+        <v>9.511679179562272</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>32.48572794398778</v>
+        <v>19.76353336149451</v>
       </c>
       <c r="H12">
-        <v>11.27580254105992</v>
+        <v>4.586822128491351</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.881565130885873</v>
       </c>
       <c r="J12">
-        <v>5.387220225773701</v>
+        <v>7.352441316285506</v>
       </c>
       <c r="K12">
-        <v>13.04087970096444</v>
+        <v>9.345394300542988</v>
       </c>
       <c r="L12">
-        <v>7.326695081145848</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.60645146572381</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.60311779752849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.82686432354635</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.03522059790927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.5061831422722</v>
+        <v>27.68055508091242</v>
       </c>
       <c r="C13">
-        <v>8.012285111484756</v>
+        <v>20.87840740382335</v>
       </c>
       <c r="D13">
-        <v>10.46881742719501</v>
+        <v>9.307559922987268</v>
       </c>
       <c r="E13">
-        <v>9.2294203160919</v>
+        <v>8.701723719890941</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>32.47023047908161</v>
+        <v>17.9967014415313</v>
       </c>
       <c r="H13">
-        <v>11.27868134410807</v>
+        <v>5.790732380168312</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.860571057664406</v>
       </c>
       <c r="J13">
-        <v>5.38876676943945</v>
+        <v>7.049642731583451</v>
       </c>
       <c r="K13">
-        <v>13.01004923498808</v>
+        <v>8.999841770069917</v>
       </c>
       <c r="L13">
-        <v>7.321235217485181</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.58778461497905</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.60298725723431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.94696021250227</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.26345517958263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.35873720417542</v>
+        <v>27.7670240594833</v>
       </c>
       <c r="C14">
-        <v>8.016246789704299</v>
+        <v>20.86621107332242</v>
       </c>
       <c r="D14">
-        <v>10.42725543292813</v>
+        <v>9.222252469508176</v>
       </c>
       <c r="E14">
-        <v>9.227470171460951</v>
+        <v>9.314925444743405</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>32.42054652111114</v>
+        <v>16.65897284055087</v>
       </c>
       <c r="H14">
-        <v>11.28825439406683</v>
+        <v>6.684539441620839</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.82559750991249</v>
       </c>
       <c r="J14">
-        <v>5.393820448592536</v>
+        <v>6.847332796868175</v>
       </c>
       <c r="K14">
-        <v>12.90902928914049</v>
+        <v>8.844530740562078</v>
       </c>
       <c r="L14">
-        <v>7.303476242013955</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.52680803353052</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.60298731995174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.52067579158096</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.71513525142037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.26783826462382</v>
+        <v>27.70056912929123</v>
       </c>
       <c r="C15">
-        <v>8.018698125075266</v>
+        <v>20.81545164829632</v>
       </c>
       <c r="D15">
-        <v>10.40183985064776</v>
+        <v>9.170051630891743</v>
       </c>
       <c r="E15">
-        <v>9.226362832714708</v>
+        <v>9.595470647831613</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32.39076847993548</v>
+        <v>16.28207198093782</v>
       </c>
       <c r="H15">
-        <v>11.29425905859099</v>
+        <v>6.889054892425572</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.807240971680797</v>
       </c>
       <c r="J15">
-        <v>5.396923759789582</v>
+        <v>6.800705043483172</v>
       </c>
       <c r="K15">
-        <v>12.84678650146901</v>
+        <v>8.833889159948029</v>
       </c>
       <c r="L15">
-        <v>7.292634496531303</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.48938239654055</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.60331222149065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.13072214605759</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.57468134481936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.73794334482472</v>
+        <v>26.83564046750083</v>
       </c>
       <c r="C16">
-        <v>8.033121524426079</v>
+        <v>20.2327963794652</v>
       </c>
       <c r="D16">
-        <v>10.25686930392001</v>
+        <v>8.867125517060719</v>
       </c>
       <c r="E16">
-        <v>9.221338260326828</v>
+        <v>9.438106714946908</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>32.23001538585946</v>
+        <v>16.04703280088787</v>
       </c>
       <c r="H16">
-        <v>11.33078859410996</v>
+        <v>6.618647594258331</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.701073251210877</v>
       </c>
       <c r="J16">
-        <v>5.414829102601057</v>
+        <v>6.856915597690804</v>
       </c>
       <c r="K16">
-        <v>12.4844992923666</v>
+        <v>9.076294817089241</v>
       </c>
       <c r="L16">
-        <v>7.231065299373462</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.27379608953862</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.61005832633283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.79918319042348</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.59967207670098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.40480727581611</v>
+        <v>26.1069126161896</v>
       </c>
       <c r="C17">
-        <v>8.042302296816608</v>
+        <v>19.78413618415882</v>
       </c>
       <c r="D17">
-        <v>10.16856762431731</v>
+        <v>8.677302538596351</v>
       </c>
       <c r="E17">
-        <v>9.219418384104566</v>
+        <v>8.803902487824141</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>32.14006742689418</v>
+        <v>16.60972359132618</v>
       </c>
       <c r="H17">
-        <v>11.35504640115189</v>
+        <v>5.886876248655061</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.638006448402322</v>
       </c>
       <c r="J17">
-        <v>5.425924202526056</v>
+        <v>7.00672011642683</v>
       </c>
       <c r="K17">
-        <v>12.25725133657274</v>
+        <v>9.334545539065907</v>
       </c>
       <c r="L17">
-        <v>7.193801857546776</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.14059762846357</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.61845266860171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.33949097027181</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.91297744803191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.21021717071601</v>
+        <v>25.42750241348482</v>
       </c>
       <c r="C18">
-        <v>8.047703931150025</v>
+        <v>19.38095516504797</v>
       </c>
       <c r="D18">
-        <v>10.11802360717395</v>
+        <v>8.567417817946277</v>
       </c>
       <c r="E18">
-        <v>9.218734907981768</v>
+        <v>8.717503117683387</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>32.09145360957423</v>
+        <v>17.95209851651414</v>
       </c>
       <c r="H18">
-        <v>11.36966138847281</v>
+        <v>4.729685204194733</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.604933840475725</v>
       </c>
       <c r="J18">
-        <v>5.432347412638568</v>
+        <v>7.261073828676595</v>
       </c>
       <c r="K18">
-        <v>12.12470878179888</v>
+        <v>9.675609727747123</v>
       </c>
       <c r="L18">
-        <v>7.172558176548134</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>11.06366027109303</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.6248046212431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.69378281165143</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.52462515462505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14381914569748</v>
+        <v>24.84815769897008</v>
       </c>
       <c r="C19">
-        <v>8.04955353004271</v>
+        <v>19.11488915044628</v>
       </c>
       <c r="D19">
-        <v>10.10095348284847</v>
+        <v>8.531556970139853</v>
       </c>
       <c r="E19">
-        <v>9.218575157241343</v>
+        <v>10.51820303529351</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>32.07552383702333</v>
+        <v>19.70812900290901</v>
       </c>
       <c r="H19">
-        <v>11.37472201940493</v>
+        <v>3.511462047766104</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.607995177415835</v>
       </c>
       <c r="J19">
-        <v>5.434529430307306</v>
+        <v>7.569069435264919</v>
       </c>
       <c r="K19">
-        <v>12.07951703670739</v>
+        <v>10.08133184985934</v>
       </c>
       <c r="L19">
-        <v>7.165398207734798</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>11.03755689558058</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.62721320550007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.5894526729443</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.29394979170243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.44057814061223</v>
+        <v>24.60544267543216</v>
       </c>
       <c r="C20">
-        <v>8.041312430845494</v>
+        <v>19.14270718155102</v>
       </c>
       <c r="D20">
-        <v>10.177942432975</v>
+        <v>8.705488662893281</v>
       </c>
       <c r="E20">
-        <v>9.219579063775786</v>
+        <v>15.51994066642927</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>32.14931798201883</v>
+        <v>22.65575535202975</v>
       </c>
       <c r="H20">
-        <v>11.35239517677567</v>
+        <v>2.843961737864211</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.70041701734641</v>
       </c>
       <c r="J20">
-        <v>5.424738824581709</v>
+        <v>8.043136573285327</v>
       </c>
       <c r="K20">
-        <v>12.28163226950574</v>
+        <v>10.67930407241044</v>
       </c>
       <c r="L20">
-        <v>7.197749090556223</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>11.15481098240383</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.61740047277768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.80820356578065</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.53648991616246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.40216727313673</v>
+        <v>25.98518216376984</v>
       </c>
       <c r="C21">
-        <v>8.015077996207763</v>
+        <v>20.1333356906988</v>
       </c>
       <c r="D21">
-        <v>10.43945443817958</v>
+        <v>9.256908324641065</v>
       </c>
       <c r="E21">
-        <v>9.228024771442026</v>
+        <v>16.64020488781373</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>32.435003099585</v>
+        <v>23.87261656138821</v>
       </c>
       <c r="H21">
-        <v>11.28541309714361</v>
+        <v>3.122816153848786</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.902275238838008</v>
       </c>
       <c r="J21">
-        <v>5.392334443018409</v>
+        <v>8.125218360065373</v>
       </c>
       <c r="K21">
-        <v>12.93877738619458</v>
+        <v>10.51213166981877</v>
       </c>
       <c r="L21">
-        <v>7.308684967668942</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.544734219377</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.60291937170451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.20955599323329</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.91570188246321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.00443748866368</v>
+        <v>26.8802536312531</v>
       </c>
       <c r="C22">
-        <v>7.999034493770958</v>
+        <v>20.73493719855976</v>
       </c>
       <c r="D22">
-        <v>10.61229497582548</v>
+        <v>9.602844778304597</v>
       </c>
       <c r="E22">
-        <v>9.237429166507779</v>
+        <v>17.10243728033228</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32.65085261662609</v>
+        <v>24.59703009536404</v>
       </c>
       <c r="H22">
-        <v>11.24789721300827</v>
+        <v>3.28992977745648</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.028019764472681</v>
       </c>
       <c r="J22">
-        <v>5.37150727471786</v>
+        <v>8.172126818691492</v>
       </c>
       <c r="K22">
-        <v>13.35191654361615</v>
+        <v>10.39902977360039</v>
       </c>
       <c r="L22">
-        <v>7.382813185125586</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.79623878769668</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.6078863126607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>22.95361110515034</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.1414821408749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.68537340200215</v>
+        <v>26.40808709945689</v>
       </c>
       <c r="C23">
-        <v>8.007495145396637</v>
+        <v>20.38090508158136</v>
       </c>
       <c r="D23">
-        <v>10.51988212897472</v>
+        <v>9.419581751547881</v>
       </c>
       <c r="E23">
-        <v>9.232047697549698</v>
+        <v>16.86281638802278</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>32.53292042110654</v>
+        <v>24.2652116306466</v>
       </c>
       <c r="H23">
-        <v>11.26732919102052</v>
+        <v>3.201359852364349</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.958508758947992</v>
       </c>
       <c r="J23">
-        <v>5.382591985953371</v>
+        <v>8.157138315052912</v>
       </c>
       <c r="K23">
-        <v>13.13291042689749</v>
+        <v>10.48086853955731</v>
       </c>
       <c r="L23">
-        <v>7.343103732104341</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.66233060786428</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.60387257561312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>22.55418219132729</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.04554850386205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.42441568551655</v>
+        <v>24.53513174033945</v>
       </c>
       <c r="C24">
-        <v>8.041759564876921</v>
+        <v>19.04851142316758</v>
       </c>
       <c r="D24">
-        <v>10.17370338827676</v>
+        <v>8.696717822057563</v>
       </c>
       <c r="E24">
-        <v>9.21950511291683</v>
+        <v>15.91579969084505</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>32.14512617009081</v>
+        <v>22.92096665018349</v>
       </c>
       <c r="H24">
-        <v>11.35359171591729</v>
+        <v>2.858934278207029</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.695423523758603</v>
       </c>
       <c r="J24">
-        <v>5.425274595163616</v>
+        <v>8.093641973324562</v>
       </c>
       <c r="K24">
-        <v>12.27061555107682</v>
+        <v>10.77110409358536</v>
       </c>
       <c r="L24">
-        <v>7.195963986525513</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>11.1483862406746</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.61787142705755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>20.98662127008807</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.65810434484064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.0165396589715</v>
+        <v>22.33896737602164</v>
       </c>
       <c r="C25">
-        <v>8.083337661297668</v>
+        <v>17.50999758662318</v>
       </c>
       <c r="D25">
-        <v>9.809817066320072</v>
+        <v>7.854603795308451</v>
       </c>
       <c r="E25">
-        <v>9.221984052881371</v>
+        <v>14.83041944283523</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>31.8453063142633</v>
+        <v>21.47691921850843</v>
       </c>
       <c r="H25">
-        <v>11.47178444014616</v>
+        <v>2.474979713482873</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.403773444168023</v>
       </c>
       <c r="J25">
-        <v>5.472915620257905</v>
+        <v>8.046094193492639</v>
       </c>
       <c r="K25">
-        <v>11.27038191039975</v>
+        <v>11.11672270722317</v>
       </c>
       <c r="L25">
-        <v>7.044520740396817</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.58192049184329</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.69074432277606</v>
+        <v>19.16102605900814</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.2759386559218</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.57510263022145</v>
+        <v>20.55890673928105</v>
       </c>
       <c r="C2">
-        <v>16.18914103413453</v>
+        <v>16.44628939398379</v>
       </c>
       <c r="D2">
-        <v>7.179819609481666</v>
+        <v>7.177209305152552</v>
       </c>
       <c r="E2">
-        <v>13.99436744114584</v>
+        <v>13.89549744317712</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.58048939338826</v>
+        <v>19.43095639868054</v>
       </c>
       <c r="H2">
-        <v>2.17990885735312</v>
+        <v>2.165827249530111</v>
       </c>
       <c r="I2">
-        <v>3.176131293211195</v>
+        <v>3.171892384190271</v>
       </c>
       <c r="J2">
-        <v>8.05393045667069</v>
+        <v>8.617620658217604</v>
       </c>
       <c r="K2">
-        <v>11.44764984622681</v>
+        <v>11.25466191944128</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.47094943265475</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.178154434566677</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.68572594906506</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.09084730046466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.74578404188136</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.90221454842336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.28139393230775</v>
+        <v>19.27949966185824</v>
       </c>
       <c r="C3">
-        <v>15.29635469327047</v>
+        <v>15.4520800290702</v>
       </c>
       <c r="D3">
-        <v>6.687555352467697</v>
+        <v>6.686120373149188</v>
       </c>
       <c r="E3">
-        <v>13.38660255930584</v>
+        <v>13.3150134375772</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>19.8984887519996</v>
+        <v>18.83028174491066</v>
       </c>
       <c r="H3">
-        <v>1.970651963938438</v>
+        <v>1.963983361004851</v>
       </c>
       <c r="I3">
-        <v>3.019310016283505</v>
+        <v>3.032750740137404</v>
       </c>
       <c r="J3">
-        <v>8.053618178311575</v>
+        <v>8.603239828002318</v>
       </c>
       <c r="K3">
-        <v>11.65507220718609</v>
+        <v>11.47598722055942</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.679364314215</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.322031379753895</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.62263411985329</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.94585642279268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.67349845466922</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.79788045741412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.43992308568479</v>
+        <v>18.44749296953525</v>
       </c>
       <c r="C4">
-        <v>14.72459981356141</v>
+        <v>14.81419935205883</v>
       </c>
       <c r="D4">
-        <v>6.367908858227994</v>
+        <v>6.367136385544088</v>
       </c>
       <c r="E4">
-        <v>12.99775899029543</v>
+        <v>12.94396990223458</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>19.48355140079534</v>
+        <v>18.46722190818184</v>
       </c>
       <c r="H4">
-        <v>1.837712255408379</v>
+        <v>1.835713189142463</v>
       </c>
       <c r="I4">
-        <v>2.920401899884823</v>
+        <v>2.945120386423843</v>
       </c>
       <c r="J4">
-        <v>8.057357855347917</v>
+        <v>8.595826687446278</v>
       </c>
       <c r="K4">
-        <v>11.78776865730001</v>
+        <v>11.61558632013606</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.8119835716431</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.433687659538053</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.93527870961288</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.86421079489799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.98003649950831</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.73967407516966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08450912212847</v>
+        <v>18.09614158028848</v>
       </c>
       <c r="C5">
-        <v>14.49761582078748</v>
+        <v>14.55917002259736</v>
       </c>
       <c r="D5">
-        <v>6.233231762871163</v>
+        <v>6.232716277050658</v>
       </c>
       <c r="E5">
-        <v>12.83352522236799</v>
+        <v>12.78732215522443</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.29825802065328</v>
+        <v>18.30370737432726</v>
       </c>
       <c r="H5">
-        <v>1.782277246443353</v>
+        <v>1.782216936696009</v>
       </c>
       <c r="I5">
-        <v>2.879895855732153</v>
+        <v>2.909571528558939</v>
       </c>
       <c r="J5">
-        <v>8.057054350337671</v>
+        <v>8.590562603271241</v>
       </c>
       <c r="K5">
-        <v>11.83774758585308</v>
+        <v>11.66838015443138</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.86232065618888</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.482391794161886</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.64840476967551</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.82563576567811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.69050062060489</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.71056313862939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.02395208211906</v>
+        <v>18.03629341756728</v>
       </c>
       <c r="C6">
-        <v>14.47405851496283</v>
+        <v>14.53071556313706</v>
       </c>
       <c r="D6">
-        <v>6.21276686892898</v>
+        <v>6.212429048496288</v>
       </c>
       <c r="E6">
-        <v>12.80366260012043</v>
+        <v>12.75881980096975</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>19.24630173551705</v>
+        <v>18.25569001831962</v>
       </c>
       <c r="H6">
-        <v>1.772852666220696</v>
+        <v>1.773122025151686</v>
       </c>
       <c r="I6">
-        <v>2.873896037576517</v>
+        <v>2.904748608214684</v>
       </c>
       <c r="J6">
-        <v>8.05365946315762</v>
+        <v>8.586544855311082</v>
       </c>
       <c r="K6">
-        <v>11.83954770939638</v>
+        <v>11.67109847699171</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.86480857868615</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.487903264074479</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.60251104326627</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.81062672291515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.64408067844472</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.69748169989033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.43297784264412</v>
+        <v>18.44055144046958</v>
       </c>
       <c r="C7">
-        <v>14.76037122770839</v>
+        <v>14.84272421901843</v>
       </c>
       <c r="D7">
-        <v>6.366055093592632</v>
+        <v>6.36523822388755</v>
       </c>
       <c r="E7">
-        <v>12.98922832782615</v>
+        <v>12.93549912376962</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>19.42360967645168</v>
+        <v>18.49903525730054</v>
       </c>
       <c r="H7">
-        <v>1.8365681597292</v>
+        <v>1.834244124216644</v>
       </c>
       <c r="I7">
-        <v>2.92162172950828</v>
+        <v>2.94678772430136</v>
       </c>
       <c r="J7">
-        <v>8.048075602758013</v>
+        <v>8.546358215467341</v>
       </c>
       <c r="K7">
-        <v>11.77042735652389</v>
+        <v>11.59380507924168</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.79130735332877</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.422680736024302</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.93747132893555</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.8399849301795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.98106192752768</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.70342402236181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.13615548600051</v>
+        <v>20.12453654524262</v>
       </c>
       <c r="C8">
-        <v>15.93444200944772</v>
+        <v>16.13704855377912</v>
       </c>
       <c r="D8">
-        <v>7.013604572429824</v>
+        <v>7.011244859598635</v>
       </c>
       <c r="E8">
-        <v>13.78026660970529</v>
+        <v>13.69022984353418</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.27180938182108</v>
+        <v>19.44148485852656</v>
       </c>
       <c r="H8">
-        <v>2.108183009552054</v>
+        <v>2.095523480427288</v>
       </c>
       <c r="I8">
-        <v>3.124463263253778</v>
+        <v>3.125765385261536</v>
       </c>
       <c r="J8">
-        <v>8.04079542517357</v>
+        <v>8.467923887202723</v>
       </c>
       <c r="K8">
-        <v>11.49400752321263</v>
+        <v>11.28916324853399</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.50685861049435</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.195166888546682</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.33377390896905</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.0084687043989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.38762990578904</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.79243031173253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.10551537766596</v>
+        <v>23.06135464238907</v>
       </c>
       <c r="C9">
-        <v>17.98282220694138</v>
+        <v>18.414489317472</v>
       </c>
       <c r="D9">
-        <v>8.146824847996276</v>
+        <v>8.141087156186293</v>
       </c>
       <c r="E9">
-        <v>15.21402681156138</v>
+        <v>15.06163159354757</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.05312920290504</v>
+        <v>21.08633269837235</v>
       </c>
       <c r="H9">
-        <v>2.60691796290574</v>
+        <v>2.576152686854321</v>
       </c>
       <c r="I9">
-        <v>3.500038605739982</v>
+        <v>3.458239964559354</v>
       </c>
       <c r="J9">
-        <v>8.075739956161074</v>
+        <v>8.486580023529063</v>
       </c>
       <c r="K9">
-        <v>11.02938328961286</v>
+        <v>10.77255664365822</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.03050465097501</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.977660430221406</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.78515086340627</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.44026687804713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.85896965719571</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.10355926090238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.12121298198162</v>
+        <v>25.05594909923663</v>
       </c>
       <c r="C10">
-        <v>19.41006326080886</v>
+        <v>19.94783978698911</v>
       </c>
       <c r="D10">
-        <v>8.897354314475454</v>
+        <v>8.888452096038426</v>
       </c>
       <c r="E10">
-        <v>15.67877145805065</v>
+        <v>15.48615917407752</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.09311222300455</v>
+        <v>22.50965003370306</v>
       </c>
       <c r="H10">
-        <v>2.930920257043664</v>
+        <v>2.885970171205534</v>
       </c>
       <c r="I10">
-        <v>3.762020369712157</v>
+        <v>3.689048964556945</v>
       </c>
       <c r="J10">
-        <v>8.074291534077453</v>
+        <v>8.245355229413565</v>
       </c>
       <c r="K10">
-        <v>10.63939119339009</v>
+        <v>10.31671860044743</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.644800401226062</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.854270702379796</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.15647158323527</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.67418978963518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.23598554623852</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.18448553351498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.52080374155883</v>
+        <v>26.45314098245678</v>
       </c>
       <c r="C11">
-        <v>20.3075913978</v>
+        <v>20.7208247018183</v>
       </c>
       <c r="D11">
-        <v>9.217520550581769</v>
+        <v>9.206883498556344</v>
       </c>
       <c r="E11">
-        <v>11.90749559453637</v>
+        <v>11.69742925216884</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>21.38103363847582</v>
+        <v>21.92329440184218</v>
       </c>
       <c r="H11">
-        <v>3.531244141410603</v>
+        <v>3.489251974548315</v>
       </c>
       <c r="I11">
-        <v>3.855244082494007</v>
+        <v>3.769803002288151</v>
       </c>
       <c r="J11">
-        <v>7.677083231299259</v>
+        <v>7.499271751879613</v>
       </c>
       <c r="K11">
-        <v>9.855408343744006</v>
+        <v>9.597661135021996</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.196822805319174</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.25814291724535</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.51805842090212</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.80073946813084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.57560410769439</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.23051767341971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.30314850089168</v>
+        <v>27.23758690618472</v>
       </c>
       <c r="C12">
-        <v>20.73244632397479</v>
+        <v>21.03484185650796</v>
       </c>
       <c r="D12">
-        <v>9.335144561412378</v>
+        <v>9.323885175559267</v>
       </c>
       <c r="E12">
-        <v>9.511679179562272</v>
+        <v>9.291491395071404</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>19.76353336149451</v>
+        <v>20.90508037129269</v>
       </c>
       <c r="H12">
-        <v>4.586822128491351</v>
+        <v>4.55407800356553</v>
       </c>
       <c r="I12">
-        <v>3.881565130885873</v>
+        <v>3.791256008323286</v>
       </c>
       <c r="J12">
-        <v>7.352441316285506</v>
+        <v>7.105324615711674</v>
       </c>
       <c r="K12">
-        <v>9.345394300542988</v>
+        <v>9.180779723510495</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.974207439723205</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.834582380253308</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.82686432354635</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.03522059790927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.86755608085941</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.4763734620697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.68055508091242</v>
+        <v>27.62075361385726</v>
       </c>
       <c r="C13">
-        <v>20.87840740382335</v>
+        <v>21.08307243699609</v>
       </c>
       <c r="D13">
-        <v>9.307559922987268</v>
+        <v>9.296654419064025</v>
       </c>
       <c r="E13">
-        <v>8.701723719890941</v>
+        <v>8.503517255984864</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>17.9967014415313</v>
+        <v>19.17682644019594</v>
       </c>
       <c r="H13">
-        <v>5.790732380168312</v>
+        <v>5.76648261261064</v>
       </c>
       <c r="I13">
-        <v>3.860571057664406</v>
+        <v>3.773063226316399</v>
       </c>
       <c r="J13">
-        <v>7.049642731583451</v>
+        <v>6.961523145213198</v>
       </c>
       <c r="K13">
-        <v>8.999841770069917</v>
+        <v>8.950379050819635</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.868590127059834</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.526758059751351</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.94696021250227</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.26345517958263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.97454294910572</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.81860863440398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.7670240594833</v>
+        <v>27.71290696821315</v>
       </c>
       <c r="C14">
-        <v>20.86621107332242</v>
+        <v>21.00642926789631</v>
       </c>
       <c r="D14">
-        <v>9.222252469508176</v>
+        <v>9.212018332309917</v>
       </c>
       <c r="E14">
-        <v>9.314925444743405</v>
+        <v>9.154408045469014</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16.65897284055087</v>
+        <v>17.61757932510044</v>
       </c>
       <c r="H14">
-        <v>6.684539441620839</v>
+        <v>6.665208536673076</v>
       </c>
       <c r="I14">
-        <v>3.82559750991249</v>
+        <v>3.743717563791504</v>
       </c>
       <c r="J14">
-        <v>6.847332796868175</v>
+        <v>6.94964426177105</v>
       </c>
       <c r="K14">
-        <v>8.844530740562078</v>
+        <v>8.872065938204212</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.837478948168712</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.378127345559389</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.52067579158096</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.71513525142037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.54031452121168</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.39320719761305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.70056912929123</v>
+        <v>27.64869185048162</v>
       </c>
       <c r="C15">
-        <v>20.81545164829632</v>
+        <v>20.94156323111</v>
       </c>
       <c r="D15">
-        <v>9.170051630891743</v>
+        <v>9.160184017852981</v>
       </c>
       <c r="E15">
-        <v>9.595470647831613</v>
+        <v>9.447112671964732</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>16.28207198093782</v>
+        <v>17.08019425811367</v>
       </c>
       <c r="H15">
-        <v>6.889054892425572</v>
+        <v>6.871076507997445</v>
       </c>
       <c r="I15">
-        <v>3.807240971680797</v>
+        <v>3.728851763424937</v>
       </c>
       <c r="J15">
-        <v>6.800705043483172</v>
+        <v>6.983212061248902</v>
       </c>
       <c r="K15">
-        <v>8.833889159948029</v>
+        <v>8.880146304100183</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.842366201621806</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.363784038153165</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.13072214605759</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.57468134481936</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.14893888424274</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.30078456781705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.83564046750083</v>
+        <v>26.79187868109437</v>
       </c>
       <c r="C16">
-        <v>20.2327963794652</v>
+        <v>20.37373802691979</v>
       </c>
       <c r="D16">
-        <v>8.867125517060719</v>
+        <v>8.859110393923968</v>
       </c>
       <c r="E16">
-        <v>9.438106714946908</v>
+        <v>9.312326746371333</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>16.04703280088787</v>
+        <v>15.96606428101054</v>
       </c>
       <c r="H16">
-        <v>6.618647594258331</v>
+        <v>6.603812946132091</v>
       </c>
       <c r="I16">
-        <v>3.701073251210877</v>
+        <v>3.639238096423383</v>
       </c>
       <c r="J16">
-        <v>6.856915597690804</v>
+        <v>7.339675028481035</v>
       </c>
       <c r="K16">
-        <v>9.076294817089241</v>
+        <v>9.130292836292893</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.9645425348294</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.55974529624137</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.79918319042348</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.59967207670098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.82246577753819</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.47103794396239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.1069126161896</v>
+        <v>26.0663569195861</v>
       </c>
       <c r="C17">
-        <v>19.78413618415882</v>
+        <v>19.96443372640632</v>
       </c>
       <c r="D17">
-        <v>8.677302538596351</v>
+        <v>8.670249531264666</v>
       </c>
       <c r="E17">
-        <v>8.803902487824141</v>
+        <v>8.675180988444486</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>16.60972359132618</v>
+        <v>16.09961841070772</v>
       </c>
       <c r="H17">
-        <v>5.886876248655061</v>
+        <v>5.872345508511581</v>
       </c>
       <c r="I17">
-        <v>3.638006448402322</v>
+        <v>3.58550093427283</v>
       </c>
       <c r="J17">
-        <v>7.00672011642683</v>
+        <v>7.603919930711012</v>
       </c>
       <c r="K17">
-        <v>9.334545539065907</v>
+        <v>9.364670040601816</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.092260679342463</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.767853119077495</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.33949097027181</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.91297744803191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.37023203018223</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.81525774479636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.42750241348482</v>
+        <v>25.38604165573097</v>
       </c>
       <c r="C18">
-        <v>19.38095516504797</v>
+        <v>19.63741309310569</v>
       </c>
       <c r="D18">
-        <v>8.567417817946277</v>
+        <v>8.560792136744343</v>
       </c>
       <c r="E18">
-        <v>8.717503117683387</v>
+        <v>8.570364729362613</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>17.95209851651414</v>
+        <v>17.17812003580188</v>
       </c>
       <c r="H18">
-        <v>4.729685204194733</v>
+        <v>4.712446830165748</v>
       </c>
       <c r="I18">
-        <v>3.604933840475725</v>
+        <v>3.555826761835841</v>
       </c>
       <c r="J18">
-        <v>7.261073828676595</v>
+        <v>7.876141577175642</v>
       </c>
       <c r="K18">
-        <v>9.675609727747123</v>
+        <v>9.651318377995119</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.265193142673162</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.037637148742072</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.69378281165143</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.52462515462505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.73664741435707</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.38977566048019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.84815769897008</v>
+        <v>24.80241735746572</v>
       </c>
       <c r="C19">
-        <v>19.11488915044628</v>
+        <v>19.47260209627945</v>
       </c>
       <c r="D19">
-        <v>8.531556970139853</v>
+        <v>8.524927027057691</v>
       </c>
       <c r="E19">
-        <v>10.51820303529351</v>
+        <v>10.35775191237952</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>19.70812900290901</v>
+        <v>18.74901290807632</v>
       </c>
       <c r="H19">
-        <v>3.511462047766104</v>
+        <v>3.487079836343009</v>
       </c>
       <c r="I19">
-        <v>3.607995177415835</v>
+        <v>3.559297821747652</v>
       </c>
       <c r="J19">
-        <v>7.569069435264919</v>
+        <v>8.148651767758594</v>
       </c>
       <c r="K19">
-        <v>10.08133184985934</v>
+        <v>9.97629849965587</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.470290922571854</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.353574994987712</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.5894526729443</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.29394979170243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.64738020731616</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.08199644390572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.60544267543216</v>
+        <v>24.54602985268799</v>
       </c>
       <c r="C20">
-        <v>19.14270718155102</v>
+        <v>19.6690961119162</v>
       </c>
       <c r="D20">
-        <v>8.705488662893281</v>
+        <v>8.697660048941289</v>
       </c>
       <c r="E20">
-        <v>15.51994066642927</v>
+        <v>15.33855107827289</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>22.65575535202975</v>
+        <v>21.69822059362822</v>
       </c>
       <c r="H20">
-        <v>2.843961737864211</v>
+        <v>2.803782070275563</v>
       </c>
       <c r="I20">
-        <v>3.70041701734641</v>
+        <v>3.640024776939907</v>
       </c>
       <c r="J20">
-        <v>8.043136573285327</v>
+        <v>8.419034482098359</v>
       </c>
       <c r="K20">
-        <v>10.67930407241044</v>
+        <v>10.40355472666633</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.723450774983764</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.847993556177162</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.80820356578065</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.53648991616246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.88842479049405</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.13586780981965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.98518216376984</v>
+        <v>25.90793322936749</v>
       </c>
       <c r="C21">
-        <v>20.1333356906988</v>
+        <v>20.66632245868317</v>
       </c>
       <c r="D21">
-        <v>9.256908324641065</v>
+        <v>9.245414027521345</v>
       </c>
       <c r="E21">
-        <v>16.64020488781373</v>
+        <v>16.42792933117024</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>23.87261656138821</v>
+        <v>24.61290861671267</v>
       </c>
       <c r="H21">
-        <v>3.122816153848786</v>
+        <v>3.066328484996955</v>
       </c>
       <c r="I21">
-        <v>3.902275238838008</v>
+        <v>3.81037371981548</v>
       </c>
       <c r="J21">
-        <v>8.125218360065373</v>
+        <v>7.626528414891364</v>
       </c>
       <c r="K21">
-        <v>10.51213166981877</v>
+        <v>10.0481468309937</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.437747439445284</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.773914504930463</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.20955599323329</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.91570188246321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.28284394823012</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.14381307136475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.8802536312531</v>
+        <v>26.79224778571951</v>
       </c>
       <c r="C22">
-        <v>20.73493719855976</v>
+        <v>21.25977602338616</v>
       </c>
       <c r="D22">
-        <v>9.602844778304597</v>
+        <v>9.58882050195095</v>
       </c>
       <c r="E22">
-        <v>17.10243728033228</v>
+        <v>16.87252540925518</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.59703009536404</v>
+        <v>26.52431913503565</v>
       </c>
       <c r="H22">
-        <v>3.28992977745648</v>
+        <v>3.223104980200752</v>
       </c>
       <c r="I22">
-        <v>4.028019764472681</v>
+        <v>3.914963222617144</v>
       </c>
       <c r="J22">
-        <v>8.172126818691492</v>
+        <v>7.120437761576986</v>
       </c>
       <c r="K22">
-        <v>10.39902977360039</v>
+        <v>9.801975780340349</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.251918701861612</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.727515091503467</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.95361110515034</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.1414821408749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.02046051770352</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.11397337069626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.40808709945689</v>
+        <v>26.32576889801838</v>
       </c>
       <c r="C23">
-        <v>20.38090508158136</v>
+        <v>20.92328006878774</v>
       </c>
       <c r="D23">
-        <v>9.419581751547881</v>
+        <v>9.407040426533523</v>
       </c>
       <c r="E23">
-        <v>16.86281638802278</v>
+        <v>16.64174151729276</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.2652116306466</v>
+        <v>25.360963922983</v>
       </c>
       <c r="H23">
-        <v>3.201359852364349</v>
+        <v>3.140621358993652</v>
       </c>
       <c r="I23">
-        <v>3.958508758947992</v>
+        <v>3.856319465426072</v>
       </c>
       <c r="J23">
-        <v>8.157138315052912</v>
+        <v>7.472142775990537</v>
       </c>
       <c r="K23">
-        <v>10.48086853955731</v>
+        <v>9.966424676961129</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.367857696703641</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.786700496809221</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.55418219132729</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.04554850386205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.6265446475014</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.18548964832545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.53513174033945</v>
+        <v>24.47521663473773</v>
       </c>
       <c r="C24">
-        <v>19.04851142316758</v>
+        <v>19.58600211481719</v>
       </c>
       <c r="D24">
-        <v>8.696717822057563</v>
+        <v>8.688897134484803</v>
       </c>
       <c r="E24">
-        <v>15.91579969084505</v>
+        <v>15.73373935868007</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22.92096665018349</v>
+        <v>21.93042343096908</v>
       </c>
       <c r="H24">
-        <v>2.858934278207029</v>
+        <v>2.818690920865335</v>
       </c>
       <c r="I24">
-        <v>3.695423523758603</v>
+        <v>3.633182394056374</v>
       </c>
       <c r="J24">
-        <v>8.093641973324562</v>
+        <v>8.468906507832637</v>
       </c>
       <c r="K24">
-        <v>10.77110409358536</v>
+        <v>10.48073067032726</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.772835334610093</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.920073651460213</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.98662127008807</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.65810434484064</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.06870362113338</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.24927890409074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.33896737602164</v>
+        <v>22.30338569765849</v>
       </c>
       <c r="C25">
-        <v>17.50999758662318</v>
+        <v>17.88978447080354</v>
       </c>
       <c r="D25">
-        <v>7.854603795308451</v>
+        <v>7.849927076173908</v>
       </c>
       <c r="E25">
-        <v>14.83041944283523</v>
+        <v>14.69456008839958</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>21.47691921850843</v>
+        <v>20.42947437947074</v>
       </c>
       <c r="H25">
-        <v>2.474979713482873</v>
+        <v>2.449509373895614</v>
       </c>
       <c r="I25">
-        <v>3.403773444168023</v>
+        <v>3.375567558767274</v>
       </c>
       <c r="J25">
-        <v>8.046094193492639</v>
+        <v>8.521891367551154</v>
       </c>
       <c r="K25">
-        <v>11.11672270722317</v>
+        <v>10.88790951500946</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.14036954119325</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.995619390567867</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.16102605900814</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.2759386559218</v>
+        <v>19.23071149874805</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.99320679473969</v>
       </c>
     </row>
   </sheetData>
